--- a/output_files/cl_2_rollreg.xlsx
+++ b/output_files/cl_2_rollreg.xlsx
@@ -16,7 +16,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+  <si>
+    <t>GLC RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>GLC CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qGlucose (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rGLC</t>
+  </si>
+  <si>
+    <t>LAC RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>LAC CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qLactate (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rLAC</t>
+  </si>
+  <si>
+    <t>GLN RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>GLN CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qGlutamine (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rGLN</t>
+  </si>
+  <si>
+    <t>ASN RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>ASN CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qAsparagine (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rASN</t>
+  </si>
+  <si>
+    <t>ASP RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>ASP CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qAspartate (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rASP</t>
+  </si>
+  <si>
+    <t>CELL RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>Sp. Growth (1/hr)</t>
+  </si>
+  <si>
+    <t>mu_max</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>K_mu</t>
+  </si>
   <si>
     <t>Roll. Poly. Reg DL/DG (mmol/mmol)</t>
   </si>
@@ -379,129 +454,1062 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>10.675</v>
+      </c>
+      <c r="B2">
+        <v>29.83333333333334</v>
+      </c>
+      <c r="C2">
+        <v>0.08652675338683363</v>
+      </c>
+      <c r="D2">
+        <v>54.07922086677102</v>
+      </c>
+      <c r="E2">
+        <v>10.675</v>
+      </c>
+      <c r="F2">
+        <v>2.38676731793961</v>
+      </c>
+      <c r="G2">
+        <v>0.08513038613333218</v>
+      </c>
+      <c r="H2">
+        <v>53.20649133333261</v>
+      </c>
+      <c r="I2">
+        <v>10.675</v>
+      </c>
+      <c r="J2">
+        <v>0.17</v>
+      </c>
+      <c r="K2">
+        <v>-0.001297058027052187</v>
+      </c>
+      <c r="L2">
+        <v>-0.8106612669076168</v>
+      </c>
+      <c r="M2">
+        <v>21.74166666666667</v>
+      </c>
+      <c r="N2">
+        <v>4.079624583711777</v>
+      </c>
+      <c r="O2">
+        <v>0.04297256677933903</v>
+      </c>
+      <c r="P2">
+        <v>26.85785423708689</v>
+      </c>
+      <c r="Q2">
+        <v>21.74166666666667</v>
+      </c>
+      <c r="R2">
+        <v>9.344151453684923</v>
+      </c>
+      <c r="S2">
+        <v>0.007885754504803043</v>
+      </c>
+      <c r="T2">
+        <v>4.928596565501902</v>
+      </c>
+      <c r="U2">
+        <v>10.675</v>
+      </c>
+      <c r="V2">
+        <v>0.02470564375048384</v>
+      </c>
+      <c r="W2">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X2">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y2">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z2">
         <v>0.9838620172507948</v>
       </c>
-      <c r="B2">
+      <c r="AA2">
         <v>-0.01499025418477742</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:27">
       <c r="A3">
+        <v>32.41666666666667</v>
+      </c>
+      <c r="B3">
+        <v>28.63888888888889</v>
+      </c>
+      <c r="C3">
+        <v>0.06905148953174811</v>
+      </c>
+      <c r="D3">
+        <v>43.15718095734257</v>
+      </c>
+      <c r="E3">
+        <v>32.41666666666667</v>
+      </c>
+      <c r="F3">
+        <v>3.330373001776199</v>
+      </c>
+      <c r="G3">
+        <v>0.04610110870061228</v>
+      </c>
+      <c r="H3">
+        <v>28.81319293788267</v>
+      </c>
+      <c r="I3">
+        <v>32.41666666666667</v>
+      </c>
+      <c r="J3">
+        <v>0.195</v>
+      </c>
+      <c r="K3">
+        <v>-0.001533800190896241</v>
+      </c>
+      <c r="L3">
+        <v>-0.9586251193101508</v>
+      </c>
+      <c r="M3">
+        <v>57.625</v>
+      </c>
+      <c r="N3">
+        <v>2.757341810475325</v>
+      </c>
+      <c r="O3">
+        <v>0.0269198597015662</v>
+      </c>
+      <c r="P3">
+        <v>16.82491231347887</v>
+      </c>
+      <c r="Q3">
+        <v>57.625</v>
+      </c>
+      <c r="R3">
+        <v>9.117271429644655</v>
+      </c>
+      <c r="S3">
+        <v>0.006278866808294628</v>
+      </c>
+      <c r="T3">
+        <v>3.924291755184142</v>
+      </c>
+      <c r="U3">
+        <v>32.41666666666667</v>
+      </c>
+      <c r="V3">
+        <v>0.02197786996774821</v>
+      </c>
+      <c r="W3">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X3">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y3">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z3">
         <v>0.6676338050523323</v>
       </c>
-      <c r="B3">
+      <c r="AA3">
         <v>-0.02221241281393415</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:27">
       <c r="A4">
+        <v>57.625</v>
+      </c>
+      <c r="B4">
+        <v>26.75</v>
+      </c>
+      <c r="C4">
+        <v>0.05864839984523289</v>
+      </c>
+      <c r="D4">
+        <v>36.65524990327055</v>
+      </c>
+      <c r="E4">
+        <v>57.625</v>
+      </c>
+      <c r="F4">
+        <v>4.107460035523979</v>
+      </c>
+      <c r="G4">
+        <v>0.01982313381587367</v>
+      </c>
+      <c r="H4">
+        <v>12.38945863492104</v>
+      </c>
+      <c r="I4">
+        <v>57.625</v>
+      </c>
+      <c r="J4">
+        <v>0.23</v>
+      </c>
+      <c r="K4">
+        <v>-0.001264907506686388</v>
+      </c>
+      <c r="L4">
+        <v>-0.7905671916789927</v>
+      </c>
+      <c r="M4">
+        <v>108.2916666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.443763245534363</v>
+      </c>
+      <c r="O4">
+        <v>0.01398518283438215</v>
+      </c>
+      <c r="P4">
+        <v>8.740739271488845</v>
+      </c>
+      <c r="Q4">
+        <v>108.2916666666667</v>
+      </c>
+      <c r="R4">
+        <v>8.286379685974005</v>
+      </c>
+      <c r="S4">
+        <v>0.006015575512788363</v>
+      </c>
+      <c r="T4">
+        <v>3.759734695492727</v>
+      </c>
+      <c r="U4">
+        <v>57.625</v>
+      </c>
+      <c r="V4">
+        <v>0.01753769778670097</v>
+      </c>
+      <c r="W4">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X4">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y4">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z4">
         <v>0.3379995680732107</v>
       </c>
-      <c r="B4">
+      <c r="AA4">
         <v>-0.02156763884478263</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:27">
       <c r="A5">
+        <v>83.91666666666666</v>
+      </c>
+      <c r="B5">
+        <v>22.89269685842513</v>
+      </c>
+      <c r="C5">
+        <v>0.05526466933466381</v>
+      </c>
+      <c r="D5">
+        <v>34.54041833416488</v>
+      </c>
+      <c r="E5">
+        <v>83.91666666666666</v>
+      </c>
+      <c r="F5">
+        <v>4.442875203001928</v>
+      </c>
+      <c r="G5">
+        <v>0.002045304454165172</v>
+      </c>
+      <c r="H5">
+        <v>1.278315283853232</v>
+      </c>
+      <c r="I5">
+        <v>83.91666666666666</v>
+      </c>
+      <c r="J5">
+        <v>0.2690330477356181</v>
+      </c>
+      <c r="K5">
+        <v>-0.0008341957058782353</v>
+      </c>
+      <c r="L5">
+        <v>-0.521372316173897</v>
+      </c>
+      <c r="M5">
+        <v>166.6916666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.5400393581592492</v>
+      </c>
+      <c r="O5">
+        <v>0.005198466233526207</v>
+      </c>
+      <c r="P5">
+        <v>3.249041395953879</v>
+      </c>
+      <c r="Q5">
+        <v>166.6916666666667</v>
+      </c>
+      <c r="R5">
+        <v>6.738411839831718</v>
+      </c>
+      <c r="S5">
+        <v>0.008183018271130743</v>
+      </c>
+      <c r="T5">
+        <v>5.114386419456714</v>
+      </c>
+      <c r="U5">
+        <v>83.91666666666666</v>
+      </c>
+      <c r="V5">
+        <v>0.0121508964399359</v>
+      </c>
+      <c r="W5">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X5">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y5">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z5">
         <v>0.03700925887712297</v>
       </c>
-      <c r="B5">
+      <c r="AA5">
         <v>-0.01509455708178825</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:27">
       <c r="A6">
+        <v>105.525</v>
+      </c>
+      <c r="B6">
+        <v>20.55555555555555</v>
+      </c>
+      <c r="C6">
+        <v>0.0494407191097322</v>
+      </c>
+      <c r="D6">
+        <v>30.90044944358263</v>
+      </c>
+      <c r="E6">
+        <v>105.525</v>
+      </c>
+      <c r="F6">
+        <v>4.107460035523979</v>
+      </c>
+      <c r="G6">
+        <v>-0.02131442770190268</v>
+      </c>
+      <c r="H6">
+        <v>-13.32151731368918</v>
+      </c>
+      <c r="I6">
+        <v>105.525</v>
+      </c>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6">
+        <v>-0.0005381865514860711</v>
+      </c>
+      <c r="L6">
+        <v>-0.3363665946787944</v>
+      </c>
+      <c r="M6">
+        <v>200.6916666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.03708749621556161</v>
+      </c>
+      <c r="O6">
+        <v>0.002789474714139853</v>
+      </c>
+      <c r="P6">
+        <v>1.743421696337408</v>
+      </c>
+      <c r="Q6">
+        <v>200.6916666666667</v>
+      </c>
+      <c r="R6">
+        <v>5.647960333558711</v>
+      </c>
+      <c r="S6">
+        <v>0.009118846315278997</v>
+      </c>
+      <c r="T6">
+        <v>5.699278947049373</v>
+      </c>
+      <c r="U6">
+        <v>105.525</v>
+      </c>
+      <c r="V6">
+        <v>0.008103523031462943</v>
+      </c>
+      <c r="W6">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X6">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y6">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z6">
         <v>-0.4311107946184186</v>
       </c>
-      <c r="B6">
+      <c r="AA6">
         <v>-0.01088549198266275</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:27">
       <c r="A7">
+        <v>129.9</v>
+      </c>
+      <c r="B7">
+        <v>17.66666666666666</v>
+      </c>
+      <c r="C7">
+        <v>0.03303085800238173</v>
+      </c>
+      <c r="D7">
+        <v>20.64428625148858</v>
+      </c>
+      <c r="E7">
+        <v>129.9</v>
+      </c>
+      <c r="F7">
+        <v>2.33126110124334</v>
+      </c>
+      <c r="G7">
+        <v>-0.02318708491002975</v>
+      </c>
+      <c r="H7">
+        <v>-14.49192806876859</v>
+      </c>
+      <c r="I7">
+        <v>129.9</v>
+      </c>
+      <c r="J7">
+        <v>0.325</v>
+      </c>
+      <c r="K7">
+        <v>-0.0004754460491120783</v>
+      </c>
+      <c r="L7">
+        <v>-0.2971537806950489</v>
+      </c>
+      <c r="M7">
+        <v>274.4916666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.3648198607326672</v>
+      </c>
+      <c r="O7">
+        <v>-7.691901339623369E-05</v>
+      </c>
+      <c r="P7">
+        <v>-0.04807438337264606</v>
+      </c>
+      <c r="Q7">
+        <v>274.4916666666667</v>
+      </c>
+      <c r="R7">
+        <v>3.494478251070543</v>
+      </c>
+      <c r="S7">
+        <v>0.009446653985490308</v>
+      </c>
+      <c r="T7">
+        <v>5.904158740931442</v>
+      </c>
+      <c r="U7">
+        <v>129.9</v>
+      </c>
+      <c r="V7">
+        <v>0.004678872620454603</v>
+      </c>
+      <c r="W7">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X7">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y7">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z7">
         <v>-0.7019825191449103</v>
       </c>
-      <c r="B7">
+      <c r="AA7">
         <v>-0.01439399633753975</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:27">
       <c r="A8">
+        <v>155.125</v>
+      </c>
+      <c r="B8">
+        <v>32.08916183327647</v>
+      </c>
+      <c r="C8">
+        <v>0.02977038420439976</v>
+      </c>
+      <c r="D8">
+        <v>18.60649012774985</v>
+      </c>
+      <c r="E8">
+        <v>155.125</v>
+      </c>
+      <c r="F8">
+        <v>0.8595935876855055</v>
+      </c>
+      <c r="G8">
+        <v>-0.008614869997346999</v>
+      </c>
+      <c r="H8">
+        <v>-5.384293748341874</v>
+      </c>
+      <c r="I8">
+        <v>155.125</v>
+      </c>
+      <c r="J8">
+        <v>0.3500140736949846</v>
+      </c>
+      <c r="K8">
+        <v>-0.0003453040412860792</v>
+      </c>
+      <c r="L8">
+        <v>-0.2158150258037995</v>
+      </c>
+      <c r="U8">
+        <v>155.125</v>
+      </c>
+      <c r="V8">
+        <v>0.002469194454841347</v>
+      </c>
+      <c r="W8">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X8">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y8">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z8">
         <v>-0.289377185668763</v>
       </c>
-      <c r="B8">
+      <c r="AA8">
         <v>-0.01159891114992889</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:27">
       <c r="A9">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>29.52777777777778</v>
+      </c>
+      <c r="C9">
+        <v>0.03629977573724161</v>
+      </c>
+      <c r="D9">
+        <v>22.687359835776</v>
+      </c>
+      <c r="E9">
+        <v>177</v>
+      </c>
+      <c r="F9">
+        <v>0.7215808170515099</v>
+      </c>
+      <c r="G9">
+        <v>-0.002483032528414532</v>
+      </c>
+      <c r="H9">
+        <v>-1.551895330259082</v>
+      </c>
+      <c r="I9">
+        <v>177</v>
+      </c>
+      <c r="J9">
+        <v>0.355</v>
+      </c>
+      <c r="K9">
+        <v>0.0002137941897712808</v>
+      </c>
+      <c r="L9">
+        <v>0.1336213686070505</v>
+      </c>
+      <c r="U9">
+        <v>177</v>
+      </c>
+      <c r="V9">
+        <v>0.001369614502453544</v>
+      </c>
+      <c r="W9">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X9">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y9">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z9">
         <v>-0.06840352255584528</v>
       </c>
-      <c r="B9">
+      <c r="AA9">
         <v>0.005889683487822199</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:27">
       <c r="A10">
+        <v>200.6916666666667</v>
+      </c>
+      <c r="B10">
+        <v>25.58333333333334</v>
+      </c>
+      <c r="C10">
+        <v>0.0459520383986211</v>
+      </c>
+      <c r="D10">
+        <v>28.72002399913818</v>
+      </c>
+      <c r="E10">
+        <v>200.6916666666667</v>
+      </c>
+      <c r="F10">
+        <v>0.3330373001776199</v>
+      </c>
+      <c r="G10">
+        <v>-0.002619434544211183</v>
+      </c>
+      <c r="H10">
+        <v>-1.637146590131989</v>
+      </c>
+      <c r="I10">
+        <v>200.6916666666667</v>
+      </c>
+      <c r="J10">
+        <v>0.315</v>
+      </c>
+      <c r="K10">
+        <v>0.0005199138923511459</v>
+      </c>
+      <c r="L10">
+        <v>0.3249461827194662</v>
+      </c>
+      <c r="U10">
+        <v>200.6916666666667</v>
+      </c>
+      <c r="V10">
+        <v>0.0007087365629518282</v>
+      </c>
+      <c r="W10">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X10">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y10">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z10">
         <v>-0.05700366372190761</v>
       </c>
-      <c r="B10">
+      <c r="AA10">
         <v>0.01131427267363067</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:27">
       <c r="A11">
+        <v>225.7916666666667</v>
+      </c>
+      <c r="B11">
+        <v>20.24350400094487</v>
+      </c>
+      <c r="C11">
+        <v>0.0516392936527501</v>
+      </c>
+      <c r="D11">
+        <v>32.27455853296881</v>
+      </c>
+      <c r="E11">
+        <v>225.7916666666667</v>
+      </c>
+      <c r="F11">
+        <v>0.27753108348135</v>
+      </c>
+      <c r="G11">
+        <v>0.002510664109368899</v>
+      </c>
+      <c r="H11">
+        <v>1.569165068355562</v>
+      </c>
+      <c r="I11">
+        <v>225.7916666666667</v>
+      </c>
+      <c r="J11">
+        <v>0.2680640446452299</v>
+      </c>
+      <c r="K11">
+        <v>0.0002450899538575753</v>
+      </c>
+      <c r="L11">
+        <v>0.1531812211609846</v>
+      </c>
+      <c r="U11">
+        <v>225.7916666666667</v>
+      </c>
+      <c r="V11">
+        <v>0.0003482963197341305</v>
+      </c>
+      <c r="W11">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X11">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y11">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z11">
         <v>0.04861925738667015</v>
       </c>
-      <c r="B11">
+      <c r="AA11">
         <v>0.004746191059577416</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:27">
       <c r="A12">
+        <v>250</v>
+      </c>
+      <c r="B12">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="C12">
+        <v>0.06345622845508617</v>
+      </c>
+      <c r="D12">
+        <v>39.66014278442885</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>0.7215808170515099</v>
+      </c>
+      <c r="G12">
+        <v>0.007989561935336526</v>
+      </c>
+      <c r="H12">
+        <v>4.993476209585329</v>
+      </c>
+      <c r="I12">
+        <v>250</v>
+      </c>
+      <c r="J12">
+        <v>0.265</v>
+      </c>
+      <c r="K12">
+        <v>-0.0003829678824951795</v>
+      </c>
+      <c r="L12">
+        <v>-0.2393549265594872</v>
+      </c>
+      <c r="U12">
+        <v>250</v>
+      </c>
+      <c r="V12">
+        <v>0.0001744535740466672</v>
+      </c>
+      <c r="W12">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X12">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y12">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z12">
         <v>0.1259066624325377</v>
       </c>
-      <c r="B12">
+      <c r="AA12">
         <v>-0.006035150399243176</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:27">
       <c r="A13">
+        <v>274.9083333333333</v>
+      </c>
+      <c r="B13">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="C13">
+        <v>0.06455737682476068</v>
+      </c>
+      <c r="D13">
+        <v>40.34836051547542</v>
+      </c>
+      <c r="E13">
+        <v>274.9083333333333</v>
+      </c>
+      <c r="F13">
+        <v>0.9991119005328598</v>
+      </c>
+      <c r="G13">
+        <v>-0.001108445892937336</v>
+      </c>
+      <c r="H13">
+        <v>-0.692778683085835</v>
+      </c>
+      <c r="I13">
+        <v>274.9083333333333</v>
+      </c>
+      <c r="J13">
+        <v>0.29</v>
+      </c>
+      <c r="K13">
+        <v>0.0001592173560876964</v>
+      </c>
+      <c r="L13">
+        <v>0.09951084755481025</v>
+      </c>
+      <c r="U13">
+        <v>274.9083333333333</v>
+      </c>
+      <c r="V13">
+        <v>8.538001531940315E-05</v>
+      </c>
+      <c r="W13">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X13">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y13">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z13">
         <v>-0.01716993390153047</v>
       </c>
-      <c r="B13">
+      <c r="AA13">
         <v>0.00246629221815948</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:27">
       <c r="A14">
+        <v>297.8333333333333</v>
+      </c>
+      <c r="B14">
+        <v>31.73328785551046</v>
+      </c>
+      <c r="C14">
+        <v>0.0573519166666943</v>
+      </c>
+      <c r="D14">
+        <v>35.84494791668394</v>
+      </c>
+      <c r="E14">
+        <v>297.8333333333333</v>
+      </c>
+      <c r="F14">
+        <v>0.7160443229874257</v>
+      </c>
+      <c r="G14">
+        <v>-0.006242743465146683</v>
+      </c>
+      <c r="H14">
+        <v>-3.901714665716677</v>
+      </c>
+      <c r="I14">
+        <v>297.8333333333333</v>
+      </c>
+      <c r="J14">
+        <v>0.2534539451055926</v>
+      </c>
+      <c r="K14">
+        <v>0.0006177522405622933</v>
+      </c>
+      <c r="L14">
+        <v>0.3860951503514333</v>
+      </c>
+      <c r="U14">
+        <v>297.8333333333333</v>
+      </c>
+      <c r="V14">
+        <v>4.416959736825752E-05</v>
+      </c>
+      <c r="W14">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X14">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y14">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z14">
         <v>-0.1088497791874496</v>
       </c>
-      <c r="B14">
+      <c r="AA14">
         <v>0.01077125711687047</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:27">
       <c r="A15">
+        <v>321.625</v>
+      </c>
+      <c r="B15">
+        <v>28.58333333333334</v>
+      </c>
+      <c r="C15">
+        <v>0.0489653615426435</v>
+      </c>
+      <c r="D15">
+        <v>30.60335096415218</v>
+      </c>
+      <c r="E15">
+        <v>321.625</v>
+      </c>
+      <c r="F15">
+        <v>0.3885435168738899</v>
+      </c>
+      <c r="G15">
+        <v>-0.0007661122907074766</v>
+      </c>
+      <c r="H15">
+        <v>-0.4788201816921729</v>
+      </c>
+      <c r="I15">
+        <v>321.625</v>
+      </c>
+      <c r="J15">
+        <v>0.225</v>
+      </c>
+      <c r="K15">
+        <v>-0.0003126275509282059</v>
+      </c>
+      <c r="L15">
+        <v>-0.1953922193301287</v>
+      </c>
+      <c r="U15">
+        <v>321.625</v>
+      </c>
+      <c r="V15">
+        <v>2.227173856214651E-05</v>
+      </c>
+      <c r="W15">
+        <v>0.02881172992825039</v>
+      </c>
+      <c r="X15">
+        <v>0.4147004685724266</v>
+      </c>
+      <c r="Y15">
+        <v>3.808424449765378</v>
+      </c>
+      <c r="Z15">
         <v>-0.01564600498334473</v>
       </c>
-      <c r="B15">
+      <c r="AA15">
         <v>-0.00638466746857248</v>
       </c>
     </row>
@@ -512,129 +1520,1062 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>10.54458333333333</v>
+      </c>
+      <c r="B2">
+        <v>29.05555555555556</v>
+      </c>
+      <c r="C2">
+        <v>0.09426490649365415</v>
+      </c>
+      <c r="D2">
+        <v>58.91556655853385</v>
+      </c>
+      <c r="E2">
+        <v>10.54458333333333</v>
+      </c>
+      <c r="F2">
+        <v>2.553285968028419</v>
+      </c>
+      <c r="G2">
+        <v>0.07233725293334607</v>
+      </c>
+      <c r="H2">
+        <v>45.21078308334129</v>
+      </c>
+      <c r="I2">
+        <v>10.54458333333333</v>
+      </c>
+      <c r="J2">
+        <v>0.15</v>
+      </c>
+      <c r="K2">
+        <v>-0.001670980134783121</v>
+      </c>
+      <c r="L2">
+        <v>-1.04436258423945</v>
+      </c>
+      <c r="M2">
+        <v>21.61958333333333</v>
+      </c>
+      <c r="N2">
+        <v>3.883212231304874</v>
+      </c>
+      <c r="O2">
+        <v>0.03892983509720198</v>
+      </c>
+      <c r="P2">
+        <v>24.33114693575124</v>
+      </c>
+      <c r="Q2">
+        <v>21.61958333333333</v>
+      </c>
+      <c r="R2">
+        <v>8.998196979941401</v>
+      </c>
+      <c r="S2">
+        <v>0.00208151387378174</v>
+      </c>
+      <c r="T2">
+        <v>1.300946171113587</v>
+      </c>
+      <c r="U2">
+        <v>10.54458333333333</v>
+      </c>
+      <c r="V2">
+        <v>0.02231884634129848</v>
+      </c>
+      <c r="W2">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X2">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y2">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z2">
         <v>0.7673826413673445</v>
       </c>
-      <c r="B2">
+      <c r="AA2">
         <v>-0.01772642860358228</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:27">
       <c r="A3">
+        <v>32.16416666666667</v>
+      </c>
+      <c r="B3">
+        <v>27.75</v>
+      </c>
+      <c r="C3">
+        <v>0.07161622762377994</v>
+      </c>
+      <c r="D3">
+        <v>44.76014226486246</v>
+      </c>
+      <c r="E3">
+        <v>32.16416666666667</v>
+      </c>
+      <c r="F3">
+        <v>3.38587921847247</v>
+      </c>
+      <c r="G3">
+        <v>0.03995590844814376</v>
+      </c>
+      <c r="H3">
+        <v>24.97244278008985</v>
+      </c>
+      <c r="I3">
+        <v>32.16416666666667</v>
+      </c>
+      <c r="J3">
+        <v>0.18</v>
+      </c>
+      <c r="K3">
+        <v>-0.001788238184832054</v>
+      </c>
+      <c r="L3">
+        <v>-1.117648865520034</v>
+      </c>
+      <c r="M3">
+        <v>57.38083333333333</v>
+      </c>
+      <c r="N3">
+        <v>2.6434302149561</v>
+      </c>
+      <c r="O3">
+        <v>0.02638973482672644</v>
+      </c>
+      <c r="P3">
+        <v>16.49358426670402</v>
+      </c>
+      <c r="Q3">
+        <v>57.38083333333333</v>
+      </c>
+      <c r="R3">
+        <v>8.840057095635188</v>
+      </c>
+      <c r="S3">
+        <v>0.004935816300754189</v>
+      </c>
+      <c r="T3">
+        <v>3.084885187971368</v>
+      </c>
+      <c r="U3">
+        <v>32.16416666666667</v>
+      </c>
+      <c r="V3">
+        <v>0.02016276807924244</v>
+      </c>
+      <c r="W3">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X3">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y3">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z3">
         <v>0.557916966222283</v>
       </c>
-      <c r="B3">
+      <c r="AA3">
         <v>-0.02496973443262285</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:27">
       <c r="A4">
+        <v>57.38083333333333</v>
+      </c>
+      <c r="B4">
+        <v>25.86111111111111</v>
+      </c>
+      <c r="C4">
+        <v>0.05781758398323852</v>
+      </c>
+      <c r="D4">
+        <v>36.13598998952407</v>
+      </c>
+      <c r="E4">
+        <v>57.38083333333333</v>
+      </c>
+      <c r="F4">
+        <v>3.940941385435169</v>
+      </c>
+      <c r="G4">
+        <v>0.01574728495928568</v>
+      </c>
+      <c r="H4">
+        <v>9.842053099553549</v>
+      </c>
+      <c r="I4">
+        <v>57.38083333333333</v>
+      </c>
+      <c r="J4">
+        <v>0.225</v>
+      </c>
+      <c r="K4">
+        <v>-0.001472763922342252</v>
+      </c>
+      <c r="L4">
+        <v>-0.9204774514639072</v>
+      </c>
+      <c r="M4">
+        <v>108.0725</v>
+      </c>
+      <c r="N4">
+        <v>1.382455343627006</v>
+      </c>
+      <c r="O4">
+        <v>0.01403259653089133</v>
+      </c>
+      <c r="P4">
+        <v>8.770372831807082</v>
+      </c>
+      <c r="Q4">
+        <v>108.0725</v>
+      </c>
+      <c r="R4">
+        <v>7.909247990383892</v>
+      </c>
+      <c r="S4">
+        <v>0.006122922293827899</v>
+      </c>
+      <c r="T4">
+        <v>3.826826433642437</v>
+      </c>
+      <c r="U4">
+        <v>57.38083333333333</v>
+      </c>
+      <c r="V4">
+        <v>0.01668910669797953</v>
+      </c>
+      <c r="W4">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X4">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y4">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z4">
         <v>0.2723615183202893</v>
       </c>
-      <c r="B4">
+      <c r="AA4">
         <v>-0.02547259537460455</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:27">
       <c r="A5">
+        <v>83.6725</v>
+      </c>
+      <c r="B5">
+        <v>22.21681626546988</v>
+      </c>
+      <c r="C5">
+        <v>0.04910470929875418</v>
+      </c>
+      <c r="D5">
+        <v>30.69044331172136</v>
+      </c>
+      <c r="E5">
+        <v>83.6725</v>
+      </c>
+      <c r="F5">
+        <v>4.173292990210252</v>
+      </c>
+      <c r="G5">
+        <v>0.0003129482157784845</v>
+      </c>
+      <c r="H5">
+        <v>0.1955926348615528</v>
+      </c>
+      <c r="I5">
+        <v>83.6725</v>
+      </c>
+      <c r="J5">
+        <v>0.2690330477356181</v>
+      </c>
+      <c r="K5">
+        <v>-0.0009851635156404746</v>
+      </c>
+      <c r="L5">
+        <v>-0.6157271972752966</v>
+      </c>
+      <c r="M5">
+        <v>166.4725</v>
+      </c>
+      <c r="N5">
+        <v>0.49349076597033</v>
+      </c>
+      <c r="O5">
+        <v>0.004922767021892921</v>
+      </c>
+      <c r="P5">
+        <v>3.076729388683076</v>
+      </c>
+      <c r="Q5">
+        <v>166.4725</v>
+      </c>
+      <c r="R5">
+        <v>6.478100818871609</v>
+      </c>
+      <c r="S5">
+        <v>0.007429902648411237</v>
+      </c>
+      <c r="T5">
+        <v>4.643689155257023</v>
+      </c>
+      <c r="U5">
+        <v>83.6725</v>
+      </c>
+      <c r="V5">
+        <v>0.0123488064803477</v>
+      </c>
+      <c r="W5">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X5">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y5">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z5">
         <v>0.006373079491714336</v>
       </c>
-      <c r="B5">
+      <c r="AA5">
         <v>-0.02006250581073023</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:27">
       <c r="A6">
+        <v>105.2475</v>
+      </c>
+      <c r="B6">
+        <v>19.94444444444444</v>
+      </c>
+      <c r="C6">
+        <v>0.04643108973024122</v>
+      </c>
+      <c r="D6">
+        <v>29.01943108140076</v>
+      </c>
+      <c r="E6">
+        <v>105.2475</v>
+      </c>
+      <c r="F6">
+        <v>3.829928952042629</v>
+      </c>
+      <c r="G6">
+        <v>-0.01940899312426298</v>
+      </c>
+      <c r="H6">
+        <v>-12.13062070266436</v>
+      </c>
+      <c r="I6">
+        <v>105.2475</v>
+      </c>
+      <c r="J6">
+        <v>0.31</v>
+      </c>
+      <c r="K6">
+        <v>-0.0006138737811028025</v>
+      </c>
+      <c r="L6">
+        <v>-0.3836711131892515</v>
+      </c>
+      <c r="M6">
+        <v>200.4141666666667</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.002608894420382544</v>
+      </c>
+      <c r="P6">
+        <v>1.63055901273909</v>
+      </c>
+      <c r="Q6">
+        <v>200.4141666666667</v>
+      </c>
+      <c r="R6">
+        <v>5.380887987378859</v>
+      </c>
+      <c r="S6">
+        <v>0.008552242341363057</v>
+      </c>
+      <c r="T6">
+        <v>5.345151463351911</v>
+      </c>
+      <c r="U6">
+        <v>105.2475</v>
+      </c>
+      <c r="V6">
+        <v>0.008851219326268403</v>
+      </c>
+      <c r="W6">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X6">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y6">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z6">
         <v>-0.4180171785117856</v>
       </c>
-      <c r="B6">
+      <c r="AA6">
         <v>-0.01322117970242206</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:27">
       <c r="A7">
+        <v>129.6475</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.03563849137578959</v>
+      </c>
+      <c r="D7">
+        <v>22.27405710986849</v>
+      </c>
+      <c r="E7">
+        <v>129.6475</v>
+      </c>
+      <c r="F7">
+        <v>2.109236234458259</v>
+      </c>
+      <c r="G7">
+        <v>-0.02215735897508556</v>
+      </c>
+      <c r="H7">
+        <v>-13.84834935942847</v>
+      </c>
+      <c r="I7">
+        <v>129.6475</v>
+      </c>
+      <c r="J7">
+        <v>0.335</v>
+      </c>
+      <c r="K7">
+        <v>-0.0003326053996325572</v>
+      </c>
+      <c r="L7">
+        <v>-0.2078783747703482</v>
+      </c>
+      <c r="M7">
+        <v>274.2058333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.4310475325461702</v>
+      </c>
+      <c r="O7">
+        <v>-0.0002806423552621917</v>
+      </c>
+      <c r="P7">
+        <v>-0.1754014720388698</v>
+      </c>
+      <c r="Q7">
+        <v>274.2058333333333</v>
+      </c>
+      <c r="R7">
+        <v>3.080159266771842</v>
+      </c>
+      <c r="S7">
+        <v>0.008933003848459692</v>
+      </c>
+      <c r="T7">
+        <v>5.583127405287307</v>
+      </c>
+      <c r="U7">
+        <v>129.6475</v>
+      </c>
+      <c r="V7">
+        <v>0.005586189008421527</v>
+      </c>
+      <c r="W7">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X7">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y7">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z7">
         <v>-0.6217255029526247</v>
       </c>
-      <c r="B7">
+      <c r="AA7">
         <v>-0.00933275755489771</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:27">
       <c r="A8">
+        <v>154.9225</v>
+      </c>
+      <c r="B8">
+        <v>31.17258710281967</v>
+      </c>
+      <c r="C8">
+        <v>0.03314247405519233</v>
+      </c>
+      <c r="D8">
+        <v>20.7140462844952</v>
+      </c>
+      <c r="E8">
+        <v>154.9225</v>
+      </c>
+      <c r="F8">
+        <v>0.806719665150414</v>
+      </c>
+      <c r="G8">
+        <v>-0.006413653426432108</v>
+      </c>
+      <c r="H8">
+        <v>-4.008533391520067</v>
+      </c>
+      <c r="I8">
+        <v>154.9225</v>
+      </c>
+      <c r="J8">
+        <v>0.3398032200357781</v>
+      </c>
+      <c r="K8">
+        <v>-0.0001603316691392156</v>
+      </c>
+      <c r="L8">
+        <v>-0.1002072932120098</v>
+      </c>
+      <c r="U8">
+        <v>154.9225</v>
+      </c>
+      <c r="V8">
+        <v>0.003229346958114174</v>
+      </c>
+      <c r="W8">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X8">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y8">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z8">
         <v>-0.1935176419162739</v>
       </c>
-      <c r="B8">
+      <c r="AA8">
         <v>-0.004837649382246313</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:27">
       <c r="A9">
+        <v>176.7725</v>
+      </c>
+      <c r="B9">
+        <v>28.33333333333334</v>
+      </c>
+      <c r="C9">
+        <v>0.03634871028913669</v>
+      </c>
+      <c r="D9">
+        <v>22.71794393071043</v>
+      </c>
+      <c r="E9">
+        <v>176.7725</v>
+      </c>
+      <c r="F9">
+        <v>0.7770870337477799</v>
+      </c>
+      <c r="G9">
+        <v>-0.002018355786119064</v>
+      </c>
+      <c r="H9">
+        <v>-1.261472366324415</v>
+      </c>
+      <c r="I9">
+        <v>176.7725</v>
+      </c>
+      <c r="J9">
+        <v>0.34</v>
+      </c>
+      <c r="K9">
+        <v>0.0002069976580264582</v>
+      </c>
+      <c r="L9">
+        <v>0.1293735362665364</v>
+      </c>
+      <c r="U9">
+        <v>176.7725</v>
+      </c>
+      <c r="V9">
+        <v>0.001933668313332638</v>
+      </c>
+      <c r="W9">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X9">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y9">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z9">
         <v>-0.05552757635866595</v>
       </c>
-      <c r="B9">
+      <c r="AA9">
         <v>0.005694773112440314</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:27">
       <c r="A10">
+        <v>200.4141666666667</v>
+      </c>
+      <c r="B10">
+        <v>24.27777777777778</v>
+      </c>
+      <c r="C10">
+        <v>0.04414973446443976</v>
+      </c>
+      <c r="D10">
+        <v>27.59358404027485</v>
+      </c>
+      <c r="E10">
+        <v>200.4141666666667</v>
+      </c>
+      <c r="F10">
+        <v>0.3885435168738899</v>
+      </c>
+      <c r="G10">
+        <v>-0.001871636555464534</v>
+      </c>
+      <c r="H10">
+        <v>-1.169772847165334</v>
+      </c>
+      <c r="I10">
+        <v>200.4141666666667</v>
+      </c>
+      <c r="J10">
+        <v>0.305</v>
+      </c>
+      <c r="K10">
+        <v>0.0004000084503216066</v>
+      </c>
+      <c r="L10">
+        <v>0.2500052814510041</v>
+      </c>
+      <c r="U10">
+        <v>200.4141666666667</v>
+      </c>
+      <c r="V10">
+        <v>0.001082617215334298</v>
+      </c>
+      <c r="W10">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X10">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y10">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z10">
         <v>-0.04239292893079655</v>
       </c>
-      <c r="B10">
+      <c r="AA10">
         <v>0.009060268542357643</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:27">
       <c r="A11">
+        <v>225.4975</v>
+      </c>
+      <c r="B11">
+        <v>18.59400005905454</v>
+      </c>
+      <c r="C11">
+        <v>0.05213801981339769</v>
+      </c>
+      <c r="D11">
+        <v>32.58626238337356</v>
+      </c>
+      <c r="E11">
+        <v>225.4975</v>
+      </c>
+      <c r="F11">
+        <v>0.3885435168738899</v>
+      </c>
+      <c r="G11">
+        <v>0.002868053006786645</v>
+      </c>
+      <c r="H11">
+        <v>1.792533129241653</v>
+      </c>
+      <c r="I11">
+        <v>225.4975</v>
+      </c>
+      <c r="J11">
+        <v>0.2581171937284082</v>
+      </c>
+      <c r="K11">
+        <v>0.0003207478784604133</v>
+      </c>
+      <c r="L11">
+        <v>0.2004674240377583</v>
+      </c>
+      <c r="U11">
+        <v>225.4975</v>
+      </c>
+      <c r="V11">
+        <v>0.0005753700501006678</v>
+      </c>
+      <c r="W11">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X11">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y11">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z11">
         <v>0.05500885950504882</v>
       </c>
-      <c r="B11">
+      <c r="AA11">
         <v>0.006151899892024515</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:27">
       <c r="A12">
+        <v>249.8058333333333</v>
+      </c>
+      <c r="B12">
+        <v>13.52777777777778</v>
+      </c>
+      <c r="C12">
+        <v>0.05964445008552789</v>
+      </c>
+      <c r="D12">
+        <v>37.27778130345493</v>
+      </c>
+      <c r="E12">
+        <v>249.8058333333333</v>
+      </c>
+      <c r="F12">
+        <v>0.8880994671403197</v>
+      </c>
+      <c r="G12">
+        <v>0.006687770063235395</v>
+      </c>
+      <c r="H12">
+        <v>4.179856289522122</v>
+      </c>
+      <c r="I12">
+        <v>249.8058333333333</v>
+      </c>
+      <c r="J12">
+        <v>0.245</v>
+      </c>
+      <c r="K12">
+        <v>-0.0002644936401501287</v>
+      </c>
+      <c r="L12">
+        <v>-0.1653085250938305</v>
+      </c>
+      <c r="U12">
+        <v>249.8058333333333</v>
+      </c>
+      <c r="V12">
+        <v>0.0003089918619491534</v>
+      </c>
+      <c r="W12">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X12">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y12">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z12">
         <v>0.1121272818115581</v>
       </c>
-      <c r="B12">
+      <c r="AA12">
         <v>-0.0044345054698443</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:27">
       <c r="A13">
+        <v>274.7225</v>
+      </c>
+      <c r="B13">
+        <v>7.916666666666666</v>
+      </c>
+      <c r="C13">
+        <v>0.06122556208763175</v>
+      </c>
+      <c r="D13">
+        <v>38.26597630476984</v>
+      </c>
+      <c r="E13">
+        <v>274.7225</v>
+      </c>
+      <c r="F13">
+        <v>0.9991119005328597</v>
+      </c>
+      <c r="G13">
+        <v>-0.003834666923343233</v>
+      </c>
+      <c r="H13">
+        <v>-2.396666827089521</v>
+      </c>
+      <c r="I13">
+        <v>274.7225</v>
+      </c>
+      <c r="J13">
+        <v>0.27</v>
+      </c>
+      <c r="K13">
+        <v>5.812436751669786E-05</v>
+      </c>
+      <c r="L13">
+        <v>0.03632772969793616</v>
+      </c>
+      <c r="U13">
+        <v>274.7225</v>
+      </c>
+      <c r="V13">
+        <v>0.0001625618987897028</v>
+      </c>
+      <c r="W13">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X13">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y13">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z13">
         <v>-0.0626317961418582</v>
       </c>
-      <c r="B13">
+      <c r="AA13">
         <v>0.0009493480424647605</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:27">
       <c r="A14">
+        <v>297.5725</v>
+      </c>
+      <c r="B14">
+        <v>30.79987847365351</v>
+      </c>
+      <c r="C14">
+        <v>0.06012050369402814</v>
+      </c>
+      <c r="D14">
+        <v>37.57531480876759</v>
+      </c>
+      <c r="E14">
+        <v>297.5725</v>
+      </c>
+      <c r="F14">
+        <v>0.4939411110661504</v>
+      </c>
+      <c r="G14">
+        <v>-0.006577907218154782</v>
+      </c>
+      <c r="H14">
+        <v>-4.111192011346739</v>
+      </c>
+      <c r="I14">
+        <v>297.5725</v>
+      </c>
+      <c r="J14">
+        <v>0.2433140509494628</v>
+      </c>
+      <c r="K14">
+        <v>0.0003440646706541139</v>
+      </c>
+      <c r="L14">
+        <v>0.2150404191588212</v>
+      </c>
+      <c r="U14">
+        <v>297.5725</v>
+      </c>
+      <c r="V14">
+        <v>8.998714049897257E-05</v>
+      </c>
+      <c r="W14">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X14">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y14">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z14">
         <v>-0.1094120443772692</v>
       </c>
-      <c r="B14">
+      <c r="AA14">
         <v>0.005722917299648146</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:27">
       <c r="A15">
+        <v>321.3641666666666</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0.05254955256709713</v>
+      </c>
+      <c r="D15">
+        <v>32.84347035443571</v>
+      </c>
+      <c r="E15">
+        <v>321.3641666666666</v>
+      </c>
+      <c r="F15">
+        <v>0.27753108348135</v>
+      </c>
+      <c r="G15">
+        <v>0.003199010776402499</v>
+      </c>
+      <c r="H15">
+        <v>1.999381735251562</v>
+      </c>
+      <c r="I15">
+        <v>321.3641666666666</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>5.685683649422306E-05</v>
+      </c>
+      <c r="L15">
+        <v>0.03553552280888941</v>
+      </c>
+      <c r="U15">
+        <v>321.3641666666666</v>
+      </c>
+      <c r="V15">
+        <v>4.854934244905523E-05</v>
+      </c>
+      <c r="W15">
+        <v>0.02600422632693783</v>
+      </c>
+      <c r="X15">
+        <v>0.4658438235359397</v>
+      </c>
+      <c r="Y15">
+        <v>4.177049112680169</v>
+      </c>
+      <c r="Z15">
         <v>0.06087608019721745</v>
       </c>
-      <c r="B15">
+      <c r="AA15">
         <v>0.001081966138943357</v>
       </c>
     </row>
@@ -645,129 +2586,1062 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>10.575</v>
+      </c>
+      <c r="B2">
+        <v>29.47222222222222</v>
+      </c>
+      <c r="C2">
+        <v>0.09282175487611512</v>
+      </c>
+      <c r="D2">
+        <v>58.01359679757194</v>
+      </c>
+      <c r="E2">
+        <v>10.575</v>
+      </c>
+      <c r="F2">
+        <v>2.608792184724689</v>
+      </c>
+      <c r="G2">
+        <v>0.07972633301902225</v>
+      </c>
+      <c r="H2">
+        <v>49.82895813688891</v>
+      </c>
+      <c r="I2">
+        <v>10.575</v>
+      </c>
+      <c r="J2">
+        <v>0.15</v>
+      </c>
+      <c r="K2">
+        <v>-0.001111011839822626</v>
+      </c>
+      <c r="L2">
+        <v>-0.6943823998891412</v>
+      </c>
+      <c r="M2">
+        <v>21.65833333333333</v>
+      </c>
+      <c r="N2">
+        <v>4.02437178322737</v>
+      </c>
+      <c r="O2">
+        <v>0.03701167248689539</v>
+      </c>
+      <c r="P2">
+        <v>23.13229530430962</v>
+      </c>
+      <c r="Q2">
+        <v>21.65833333333333</v>
+      </c>
+      <c r="R2">
+        <v>9.268649988731124</v>
+      </c>
+      <c r="S2">
+        <v>-0.001564794459262117</v>
+      </c>
+      <c r="T2">
+        <v>-0.9779965370388229</v>
+      </c>
+      <c r="U2">
+        <v>10.575</v>
+      </c>
+      <c r="V2">
+        <v>0.01881086058184458</v>
+      </c>
+      <c r="W2">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X2">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y2">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z2">
         <v>0.8589186136959949</v>
       </c>
-      <c r="B2">
+      <c r="AA2">
         <v>-0.01196930440827629</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:27">
       <c r="A3">
+        <v>32.23333333333333</v>
+      </c>
+      <c r="B3">
+        <v>28.19444444444444</v>
+      </c>
+      <c r="C3">
+        <v>0.06624950810118727</v>
+      </c>
+      <c r="D3">
+        <v>41.40594256324204</v>
+      </c>
+      <c r="E3">
+        <v>32.23333333333333</v>
+      </c>
+      <c r="F3">
+        <v>3.552397868561279</v>
+      </c>
+      <c r="G3">
+        <v>0.04905958777603196</v>
+      </c>
+      <c r="H3">
+        <v>30.66224236001997</v>
+      </c>
+      <c r="I3">
+        <v>32.23333333333333</v>
+      </c>
+      <c r="J3">
+        <v>0.17</v>
+      </c>
+      <c r="K3">
+        <v>-0.001411819949681357</v>
+      </c>
+      <c r="L3">
+        <v>-0.882387468550848</v>
+      </c>
+      <c r="M3">
+        <v>57.45833333333333</v>
+      </c>
+      <c r="N3">
+        <v>2.809188616409325</v>
+      </c>
+      <c r="O3">
+        <v>0.03024441693258067</v>
+      </c>
+      <c r="P3">
+        <v>18.90276058286292</v>
+      </c>
+      <c r="Q3">
+        <v>57.45833333333333</v>
+      </c>
+      <c r="R3">
+        <v>9.203290511606941</v>
+      </c>
+      <c r="S3">
+        <v>0.001894239145025237</v>
+      </c>
+      <c r="T3">
+        <v>1.183899465640773</v>
+      </c>
+      <c r="U3">
+        <v>32.23333333333333</v>
+      </c>
+      <c r="V3">
+        <v>0.01739825942992298</v>
+      </c>
+      <c r="W3">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X3">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y3">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z3">
         <v>0.7405275779723527</v>
       </c>
-      <c r="B3">
+      <c r="AA3">
         <v>-0.02131064803568037</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:27">
       <c r="A4">
+        <v>57.45833333333333</v>
+      </c>
+      <c r="B4">
+        <v>26.52777777777778</v>
+      </c>
+      <c r="C4">
+        <v>0.05653978804338386</v>
+      </c>
+      <c r="D4">
+        <v>35.33736752711491</v>
+      </c>
+      <c r="E4">
+        <v>57.45833333333333</v>
+      </c>
+      <c r="F4">
+        <v>4.329484902309058</v>
+      </c>
+      <c r="G4">
+        <v>0.02555065446943145</v>
+      </c>
+      <c r="H4">
+        <v>15.96915904339466</v>
+      </c>
+      <c r="I4">
+        <v>57.45833333333333</v>
+      </c>
+      <c r="J4">
+        <v>0.205</v>
+      </c>
+      <c r="K4">
+        <v>-0.001403517047225188</v>
+      </c>
+      <c r="L4">
+        <v>-0.8771981545157425</v>
+      </c>
+      <c r="M4">
+        <v>108.15</v>
+      </c>
+      <c r="N4">
+        <v>1.5103693611868</v>
+      </c>
+      <c r="O4">
+        <v>0.01594347162386734</v>
+      </c>
+      <c r="P4">
+        <v>9.96466976491709</v>
+      </c>
+      <c r="Q4">
+        <v>108.15</v>
+      </c>
+      <c r="R4">
+        <v>8.541807527608743</v>
+      </c>
+      <c r="S4">
+        <v>0.004629679507152721</v>
+      </c>
+      <c r="T4">
+        <v>2.89354969197045</v>
+      </c>
+      <c r="U4">
+        <v>57.45833333333333</v>
+      </c>
+      <c r="V4">
+        <v>0.01518050384672099</v>
+      </c>
+      <c r="W4">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X4">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y4">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z4">
         <v>0.4519057349459116</v>
       </c>
-      <c r="B4">
+      <c r="AA4">
         <v>-0.02482352862993132</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:27">
       <c r="A5">
+        <v>83.74166666666667</v>
+      </c>
+      <c r="B5">
+        <v>23.14169711733658</v>
+      </c>
+      <c r="C5">
+        <v>0.0530155995568859</v>
+      </c>
+      <c r="D5">
+        <v>33.13474972305369</v>
+      </c>
+      <c r="E5">
+        <v>83.74166666666667</v>
+      </c>
+      <c r="F5">
+        <v>4.882180787195791</v>
+      </c>
+      <c r="G5">
+        <v>0.01013927000773103</v>
+      </c>
+      <c r="H5">
+        <v>6.337043754831893</v>
+      </c>
+      <c r="I5">
+        <v>83.74166666666667</v>
+      </c>
+      <c r="J5">
+        <v>0.249537149817296</v>
+      </c>
+      <c r="K5">
+        <v>-0.001212120555809017</v>
+      </c>
+      <c r="L5">
+        <v>-0.7575753473806357</v>
+      </c>
+      <c r="M5">
+        <v>166.5583333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O5">
+        <v>0.00561494441668331</v>
+      </c>
+      <c r="P5">
+        <v>3.509340260427069</v>
+      </c>
+      <c r="Q5">
+        <v>166.5583333333333</v>
+      </c>
+      <c r="R5">
+        <v>7.265795206971676</v>
+      </c>
+      <c r="S5">
+        <v>0.007245364088138157</v>
+      </c>
+      <c r="T5">
+        <v>4.528352555086348</v>
+      </c>
+      <c r="U5">
+        <v>83.74166666666667</v>
+      </c>
+      <c r="V5">
+        <v>0.01231403698222795</v>
+      </c>
+      <c r="W5">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X5">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y5">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z5">
         <v>0.1912506902209332</v>
       </c>
-      <c r="B5">
+      <c r="AA5">
         <v>-0.02286346973230791</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:27">
       <c r="A6">
+        <v>105.3083333333333</v>
+      </c>
+      <c r="B6">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="C6">
+        <v>0.05003130313051254</v>
+      </c>
+      <c r="D6">
+        <v>31.26956445657034</v>
+      </c>
+      <c r="E6">
+        <v>105.3083333333333</v>
+      </c>
+      <c r="F6">
+        <v>4.940053285968029</v>
+      </c>
+      <c r="G6">
+        <v>-0.01153423810109652</v>
+      </c>
+      <c r="H6">
+        <v>-7.208898813185321</v>
+      </c>
+      <c r="I6">
+        <v>105.3083333333333</v>
+      </c>
+      <c r="J6">
+        <v>0.295</v>
+      </c>
+      <c r="K6">
+        <v>-0.0008601929632711683</v>
+      </c>
+      <c r="L6">
+        <v>-0.5376206020444801</v>
+      </c>
+      <c r="M6">
+        <v>200.5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.003018214921886378</v>
+      </c>
+      <c r="P6">
+        <v>1.886384326178986</v>
+      </c>
+      <c r="Q6">
+        <v>200.5</v>
+      </c>
+      <c r="R6">
+        <v>6.122004357298474</v>
+      </c>
+      <c r="S6">
+        <v>0.009294779222251444</v>
+      </c>
+      <c r="T6">
+        <v>5.809237013907152</v>
+      </c>
+      <c r="U6">
+        <v>105.3083333333333</v>
+      </c>
+      <c r="V6">
+        <v>0.009776675213923662</v>
+      </c>
+      <c r="W6">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X6">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y6">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z6">
         <v>-0.2305404292790076</v>
       </c>
-      <c r="B6">
+      <c r="AA6">
         <v>-0.01719309531129449</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:27">
       <c r="A7">
+        <v>129.7166666666667</v>
+      </c>
+      <c r="B7">
+        <v>18.13888888888889</v>
+      </c>
+      <c r="C7">
+        <v>0.03079989917753162</v>
+      </c>
+      <c r="D7">
+        <v>19.24993698595726</v>
+      </c>
+      <c r="E7">
+        <v>129.7166666666667</v>
+      </c>
+      <c r="F7">
+        <v>3.552397868561279</v>
+      </c>
+      <c r="G7">
+        <v>-0.02338564077745321</v>
+      </c>
+      <c r="H7">
+        <v>-14.61602548590825</v>
+      </c>
+      <c r="I7">
+        <v>129.7166666666667</v>
+      </c>
+      <c r="J7">
+        <v>0.345</v>
+      </c>
+      <c r="K7">
+        <v>-0.0008560051641904948</v>
+      </c>
+      <c r="L7">
+        <v>-0.5350032276190593</v>
+      </c>
+      <c r="M7">
+        <v>274.2583333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.4056917953375719</v>
+      </c>
+      <c r="O7">
+        <v>-0.0005983304394153522</v>
+      </c>
+      <c r="P7">
+        <v>-0.3739565246345951</v>
+      </c>
+      <c r="Q7">
+        <v>274.2583333333333</v>
+      </c>
+      <c r="R7">
+        <v>3.45841784989858</v>
+      </c>
+      <c r="S7">
+        <v>0.01008422827749819</v>
+      </c>
+      <c r="T7">
+        <v>6.302642673436369</v>
+      </c>
+      <c r="U7">
+        <v>129.7166666666667</v>
+      </c>
+      <c r="V7">
+        <v>0.007056774099593724</v>
+      </c>
+      <c r="W7">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X7">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y7">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z7">
         <v>-0.7592765366749291</v>
       </c>
-      <c r="B7">
+      <c r="AA7">
         <v>-0.02779246643816765</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:27">
       <c r="A8">
+        <v>154.9833333333333</v>
+      </c>
+      <c r="B8">
+        <v>33.63786338505439</v>
+      </c>
+      <c r="C8">
+        <v>0.02584381924326493</v>
+      </c>
+      <c r="D8">
+        <v>16.15238702704058</v>
+      </c>
+      <c r="E8">
+        <v>154.9833333333333</v>
+      </c>
+      <c r="F8">
+        <v>1.757221688443873</v>
+      </c>
+      <c r="G8">
+        <v>-0.01470909134686569</v>
+      </c>
+      <c r="H8">
+        <v>-9.193182091791055</v>
+      </c>
+      <c r="I8">
+        <v>154.9833333333333</v>
+      </c>
+      <c r="J8">
+        <v>0.3934109149277688</v>
+      </c>
+      <c r="K8">
+        <v>-0.000734557870616105</v>
+      </c>
+      <c r="L8">
+        <v>-0.4590986691350656</v>
+      </c>
+      <c r="U8">
+        <v>154.9833333333333</v>
+      </c>
+      <c r="V8">
+        <v>0.00472133757348039</v>
+      </c>
+      <c r="W8">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X8">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y8">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z8">
         <v>-0.5691531583784379</v>
       </c>
-      <c r="B8">
+      <c r="AA8">
         <v>-0.02842296116149843</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:27">
       <c r="A9">
+        <v>176.8416666666667</v>
+      </c>
+      <c r="B9">
+        <v>31.27777777777778</v>
+      </c>
+      <c r="C9">
+        <v>0.03189674497997418</v>
+      </c>
+      <c r="D9">
+        <v>19.93546561248386</v>
+      </c>
+      <c r="E9">
+        <v>176.8416666666667</v>
+      </c>
+      <c r="F9">
+        <v>1.05461811722913</v>
+      </c>
+      <c r="G9">
+        <v>-0.005184262203688964</v>
+      </c>
+      <c r="H9">
+        <v>-3.240163877305603</v>
+      </c>
+      <c r="I9">
+        <v>176.8416666666667</v>
+      </c>
+      <c r="J9">
+        <v>0.435</v>
+      </c>
+      <c r="K9">
+        <v>-9.251701782628306E-05</v>
+      </c>
+      <c r="L9">
+        <v>-0.05782313614142691</v>
+      </c>
+      <c r="U9">
+        <v>176.8416666666667</v>
+      </c>
+      <c r="V9">
+        <v>0.003197829497482208</v>
+      </c>
+      <c r="W9">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X9">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y9">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z9">
         <v>-0.1625326410874782</v>
       </c>
-      <c r="B9">
+      <c r="AA9">
         <v>-0.002900515958113227</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:27">
       <c r="A10">
+        <v>200.5</v>
+      </c>
+      <c r="B10">
+        <v>27.47222222222222</v>
+      </c>
+      <c r="C10">
+        <v>0.04439522148031762</v>
+      </c>
+      <c r="D10">
+        <v>27.74701342519851</v>
+      </c>
+      <c r="E10">
+        <v>200.5</v>
+      </c>
+      <c r="F10">
+        <v>0.8325932504440499</v>
+      </c>
+      <c r="G10">
+        <v>-0.000372080444609192</v>
+      </c>
+      <c r="H10">
+        <v>-0.232550277880745</v>
+      </c>
+      <c r="I10">
+        <v>200.5</v>
+      </c>
+      <c r="J10">
+        <v>0.415</v>
+      </c>
+      <c r="K10">
+        <v>0.0001356018549357275</v>
+      </c>
+      <c r="L10">
+        <v>0.08475115933482968</v>
+      </c>
+      <c r="U10">
+        <v>200.5</v>
+      </c>
+      <c r="V10">
+        <v>0.002031887433078369</v>
+      </c>
+      <c r="W10">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X10">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y10">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z10">
         <v>-0.008381092203226238</v>
       </c>
-      <c r="B10">
+      <c r="AA10">
         <v>0.003054424562243615</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:27">
       <c r="A11">
+        <v>225.5583333333333</v>
+      </c>
+      <c r="B11">
+        <v>21.49975966756598</v>
+      </c>
+      <c r="C11">
+        <v>0.04866774298456947</v>
+      </c>
+      <c r="D11">
+        <v>30.41733936535591</v>
+      </c>
+      <c r="E11">
+        <v>225.5583333333333</v>
+      </c>
+      <c r="F11">
+        <v>0.8130738998894027</v>
+      </c>
+      <c r="G11">
+        <v>0.001524223530404849</v>
+      </c>
+      <c r="H11">
+        <v>0.9526397065030308</v>
+      </c>
+      <c r="I11">
+        <v>225.5583333333333</v>
+      </c>
+      <c r="J11">
+        <v>0.3902037398827798</v>
+      </c>
+      <c r="K11">
+        <v>0.0001208631355214132</v>
+      </c>
+      <c r="L11">
+        <v>0.07553945970088322</v>
+      </c>
+      <c r="U11">
+        <v>225.5583333333333</v>
+      </c>
+      <c r="V11">
+        <v>0.001226414720964123</v>
+      </c>
+      <c r="W11">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X11">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y11">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z11">
         <v>0.03131896892954575</v>
       </c>
-      <c r="B11">
+      <c r="AA11">
         <v>0.002483434162125289</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:27">
       <c r="A12">
+        <v>249.8666666666667</v>
+      </c>
+      <c r="B12">
+        <v>16.30555555555556</v>
+      </c>
+      <c r="C12">
+        <v>0.05732933452372631</v>
+      </c>
+      <c r="D12">
+        <v>35.83083407732894</v>
+      </c>
+      <c r="E12">
+        <v>249.8666666666667</v>
+      </c>
+      <c r="F12">
+        <v>0.9991119005328598</v>
+      </c>
+      <c r="G12">
+        <v>0.002848877005318167</v>
+      </c>
+      <c r="H12">
+        <v>1.780548128323854</v>
+      </c>
+      <c r="I12">
+        <v>249.8666666666667</v>
+      </c>
+      <c r="J12">
+        <v>0.39</v>
+      </c>
+      <c r="K12">
+        <v>-0.0003350822459750475</v>
+      </c>
+      <c r="L12">
+        <v>-0.2094264037344047</v>
+      </c>
+      <c r="U12">
+        <v>249.8666666666667</v>
+      </c>
+      <c r="V12">
+        <v>0.000740016161708577</v>
+      </c>
+      <c r="W12">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X12">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y12">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z12">
         <v>0.04969318114340104</v>
       </c>
-      <c r="B12">
+      <c r="AA12">
         <v>-0.005844865438589216</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:27">
       <c r="A13">
+        <v>274.7916666666666</v>
+      </c>
+      <c r="B13">
+        <v>10.41666666666667</v>
+      </c>
+      <c r="C13">
+        <v>0.05385644464803714</v>
+      </c>
+      <c r="D13">
+        <v>33.66027790502321</v>
+      </c>
+      <c r="E13">
+        <v>274.7916666666666</v>
+      </c>
+      <c r="F13">
+        <v>1.1101243339254</v>
+      </c>
+      <c r="G13">
+        <v>-0.002693635064446576</v>
+      </c>
+      <c r="H13">
+        <v>-1.68352191527911</v>
+      </c>
+      <c r="I13">
+        <v>274.7916666666666</v>
+      </c>
+      <c r="J13">
+        <v>0.4</v>
+      </c>
+      <c r="K13">
+        <v>0.0004175965665307308</v>
+      </c>
+      <c r="L13">
+        <v>0.2609978540817067</v>
+      </c>
+      <c r="U13">
+        <v>274.7916666666666</v>
+      </c>
+      <c r="V13">
+        <v>0.0004365913066874122</v>
+      </c>
+      <c r="W13">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X13">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y13">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z13">
         <v>-0.05001509256784459</v>
       </c>
-      <c r="B13">
+      <c r="AA13">
         <v>0.007753882924500672</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:27">
       <c r="A14">
+        <v>297.6333333333333</v>
+      </c>
+      <c r="B14">
+        <v>33.20542373971193</v>
+      </c>
+      <c r="C14">
+        <v>0.04909062484610371</v>
+      </c>
+      <c r="D14">
+        <v>30.68164052881481</v>
+      </c>
+      <c r="E14">
+        <v>297.6333333333333</v>
+      </c>
+      <c r="F14">
+        <v>0.6599714862509045</v>
+      </c>
+      <c r="G14">
+        <v>-0.005216466888207113</v>
+      </c>
+      <c r="H14">
+        <v>-3.260291805129446</v>
+      </c>
+      <c r="I14">
+        <v>297.6333333333333</v>
+      </c>
+      <c r="J14">
+        <v>0.3426359953703704</v>
+      </c>
+      <c r="K14">
+        <v>0.0005754553059802651</v>
+      </c>
+      <c r="L14">
+        <v>0.3596595662376657</v>
+      </c>
+      <c r="U14">
+        <v>297.6333333333333</v>
+      </c>
+      <c r="V14">
+        <v>0.0002677827779245819</v>
+      </c>
+      <c r="W14">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X14">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y14">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z14">
         <v>-0.1062619778126768</v>
       </c>
-      <c r="B14">
+      <c r="AA14">
         <v>0.01172230558857795</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:27">
       <c r="A15">
+        <v>321.4083333333333</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>0.05137653741713161</v>
+      </c>
+      <c r="D15">
+        <v>32.11033588570726</v>
+      </c>
+      <c r="E15">
+        <v>321.4083333333333</v>
+      </c>
+      <c r="F15">
+        <v>0.5550621669626998</v>
+      </c>
+      <c r="G15">
+        <v>0.004215613078870533</v>
+      </c>
+      <c r="H15">
+        <v>2.634758174294083</v>
+      </c>
+      <c r="I15">
+        <v>321.4083333333333</v>
+      </c>
+      <c r="J15">
+        <v>0.29</v>
+      </c>
+      <c r="K15">
+        <v>-0.0001886949536302397</v>
+      </c>
+      <c r="L15">
+        <v>-0.1179343460188998</v>
+      </c>
+      <c r="U15">
+        <v>321.4083333333333</v>
+      </c>
+      <c r="V15">
+        <v>0.0001604771484335665</v>
+      </c>
+      <c r="W15">
+        <v>0.02174587499984249</v>
+      </c>
+      <c r="X15">
+        <v>0.5093704387430845</v>
+      </c>
+      <c r="Y15">
+        <v>4.618063164573927</v>
+      </c>
+      <c r="Z15">
         <v>0.08205327355254635</v>
       </c>
-      <c r="B15">
+      <c r="AA15">
         <v>-0.003672784565028296</v>
       </c>
     </row>

--- a/output_files/cl_2_rollreg.xlsx
+++ b/output_files/cl_2_rollreg.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/output_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05559A-0A6D-8940-96D4-02ECDA34AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample CL2_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sample CL2_2" sheetId="2" r:id="rId2"/>
     <sheet name="Sample CL2_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -102,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +172,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -244,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,9 +293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,14 +469,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,173 +590,173 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10.675</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="B2">
-        <v>29.83333333333334</v>
+        <v>29.833333333333339</v>
       </c>
       <c r="C2">
-        <v>0.08652675338683363</v>
+        <v>8.6526753386833632E-2</v>
       </c>
       <c r="D2">
-        <v>54.07922086677102</v>
+        <v>54.079220866771017</v>
       </c>
       <c r="E2">
-        <v>10.675</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="F2">
-        <v>2.38676731793961</v>
+        <v>2.3867673179396101</v>
       </c>
       <c r="G2">
-        <v>0.08513038613333218</v>
+        <v>8.5130386133332181E-2</v>
       </c>
       <c r="H2">
-        <v>53.20649133333261</v>
+        <v>53.206491333332607</v>
       </c>
       <c r="I2">
-        <v>10.675</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="J2">
         <v>0.17</v>
       </c>
       <c r="K2">
-        <v>-0.001297058027052187</v>
+        <v>-1.2970580270521869E-3</v>
       </c>
       <c r="L2">
-        <v>-0.8106612669076168</v>
+        <v>-0.81066126690761675</v>
       </c>
       <c r="M2">
-        <v>21.74166666666667</v>
+        <v>21.741666666666671</v>
       </c>
       <c r="N2">
-        <v>4.079624583711777</v>
+        <v>4.0796245837117766</v>
       </c>
       <c r="O2">
-        <v>0.04297256677933903</v>
+        <v>4.2972566779339028E-2</v>
       </c>
       <c r="P2">
         <v>26.85785423708689</v>
       </c>
       <c r="Q2">
-        <v>21.74166666666667</v>
+        <v>21.741666666666671</v>
       </c>
       <c r="R2">
-        <v>9.344151453684923</v>
+        <v>9.3441514536849226</v>
       </c>
       <c r="S2">
-        <v>0.007885754504803043</v>
+        <v>7.8857545048030431E-3</v>
       </c>
       <c r="T2">
-        <v>4.928596565501902</v>
+        <v>4.9285965655019019</v>
       </c>
       <c r="U2">
-        <v>10.675</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="V2">
-        <v>0.02470564375048384</v>
+        <v>2.4705643750483841E-2</v>
       </c>
       <c r="W2">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X2">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y2">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z2">
-        <v>0.9838620172507948</v>
+        <v>0.98386201725079481</v>
       </c>
       <c r="AA2">
-        <v>-0.01499025418477742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>-1.4990254184777421E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>32.41666666666667</v>
+        <v>32.416666666666671</v>
       </c>
       <c r="B3">
-        <v>28.63888888888889</v>
+        <v>28.638888888888889</v>
       </c>
       <c r="C3">
-        <v>0.06905148953174811</v>
+        <v>6.9051489531748111E-2</v>
       </c>
       <c r="D3">
-        <v>43.15718095734257</v>
+        <v>43.157180957342568</v>
       </c>
       <c r="E3">
-        <v>32.41666666666667</v>
+        <v>32.416666666666671</v>
       </c>
       <c r="F3">
         <v>3.330373001776199</v>
       </c>
       <c r="G3">
-        <v>0.04610110870061228</v>
+        <v>4.6101108700612278E-2</v>
       </c>
       <c r="H3">
-        <v>28.81319293788267</v>
+        <v>28.813192937882668</v>
       </c>
       <c r="I3">
-        <v>32.41666666666667</v>
+        <v>32.416666666666671</v>
       </c>
       <c r="J3">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="K3">
-        <v>-0.001533800190896241</v>
+        <v>-1.533800190896241E-3</v>
       </c>
       <c r="L3">
-        <v>-0.9586251193101508</v>
+        <v>-0.95862511931015082</v>
       </c>
       <c r="M3">
         <v>57.625</v>
       </c>
       <c r="N3">
-        <v>2.757341810475325</v>
+        <v>2.7573418104753249</v>
       </c>
       <c r="O3">
-        <v>0.0269198597015662</v>
+        <v>2.6919859701566198E-2</v>
       </c>
       <c r="P3">
-        <v>16.82491231347887</v>
+        <v>16.824912313478869</v>
       </c>
       <c r="Q3">
         <v>57.625</v>
       </c>
       <c r="R3">
-        <v>9.117271429644655</v>
+        <v>9.1172714296446546</v>
       </c>
       <c r="S3">
-        <v>0.006278866808294628</v>
+        <v>6.2788668082946284E-3</v>
       </c>
       <c r="T3">
-        <v>3.924291755184142</v>
+        <v>3.9242917551841421</v>
       </c>
       <c r="U3">
-        <v>32.41666666666667</v>
+        <v>32.416666666666671</v>
       </c>
       <c r="V3">
-        <v>0.02197786996774821</v>
+        <v>2.1977869967748209E-2</v>
       </c>
       <c r="W3">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X3">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y3">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z3">
-        <v>0.6676338050523323</v>
+        <v>0.66763380505233227</v>
       </c>
       <c r="AA3">
-        <v>-0.02221241281393415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>-2.221241281393415E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>57.625</v>
       </c>
@@ -717,10 +764,10 @@
         <v>26.75</v>
       </c>
       <c r="C4">
-        <v>0.05864839984523289</v>
+        <v>5.8648399845232888E-2</v>
       </c>
       <c r="D4">
-        <v>36.65524990327055</v>
+        <v>36.655249903270551</v>
       </c>
       <c r="E4">
         <v>57.625</v>
@@ -729,7 +776,7 @@
         <v>4.107460035523979</v>
       </c>
       <c r="G4">
-        <v>0.01982313381587367</v>
+        <v>1.982313381587367E-2</v>
       </c>
       <c r="H4">
         <v>12.38945863492104</v>
@@ -741,7 +788,7 @@
         <v>0.23</v>
       </c>
       <c r="K4">
-        <v>-0.001264907506686388</v>
+        <v>-1.264907506686388E-3</v>
       </c>
       <c r="L4">
         <v>-0.7905671916789927</v>
@@ -753,220 +800,220 @@
         <v>1.443763245534363</v>
       </c>
       <c r="O4">
-        <v>0.01398518283438215</v>
+        <v>1.3985182834382151E-2</v>
       </c>
       <c r="P4">
-        <v>8.740739271488845</v>
+        <v>8.7407392714888452</v>
       </c>
       <c r="Q4">
         <v>108.2916666666667</v>
       </c>
       <c r="R4">
-        <v>8.286379685974005</v>
+        <v>8.2863796859740049</v>
       </c>
       <c r="S4">
-        <v>0.006015575512788363</v>
+        <v>6.0155755127883634E-3</v>
       </c>
       <c r="T4">
-        <v>3.759734695492727</v>
+        <v>3.7597346954927269</v>
       </c>
       <c r="U4">
         <v>57.625</v>
       </c>
       <c r="V4">
-        <v>0.01753769778670097</v>
+        <v>1.753769778670097E-2</v>
       </c>
       <c r="W4">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X4">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y4">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z4">
-        <v>0.3379995680732107</v>
+        <v>0.33799956807321069</v>
       </c>
       <c r="AA4">
-        <v>-0.02156763884478263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>-2.1567638844782629E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>83.91666666666666</v>
+        <v>83.916666666666657</v>
       </c>
       <c r="B5">
-        <v>22.89269685842513</v>
+        <v>22.892696858425129</v>
       </c>
       <c r="C5">
-        <v>0.05526466933466381</v>
+        <v>5.5264669334663813E-2</v>
       </c>
       <c r="D5">
-        <v>34.54041833416488</v>
+        <v>34.540418334164883</v>
       </c>
       <c r="E5">
-        <v>83.91666666666666</v>
+        <v>83.916666666666657</v>
       </c>
       <c r="F5">
-        <v>4.442875203001928</v>
+        <v>4.4428752030019281</v>
       </c>
       <c r="G5">
-        <v>0.002045304454165172</v>
+        <v>2.045304454165172E-3</v>
       </c>
       <c r="H5">
-        <v>1.278315283853232</v>
+        <v>1.2783152838532319</v>
       </c>
       <c r="I5">
-        <v>83.91666666666666</v>
+        <v>83.916666666666657</v>
       </c>
       <c r="J5">
-        <v>0.2690330477356181</v>
+        <v>0.26903304773561809</v>
       </c>
       <c r="K5">
-        <v>-0.0008341957058782353</v>
+        <v>-8.3419570587823534E-4</v>
       </c>
       <c r="L5">
-        <v>-0.521372316173897</v>
+        <v>-0.52137231617389701</v>
       </c>
       <c r="M5">
-        <v>166.6916666666667</v>
+        <v>166.69166666666669</v>
       </c>
       <c r="N5">
-        <v>0.5400393581592492</v>
+        <v>0.54003935815924919</v>
       </c>
       <c r="O5">
-        <v>0.005198466233526207</v>
+        <v>5.1984662335262067E-3</v>
       </c>
       <c r="P5">
-        <v>3.249041395953879</v>
+        <v>3.2490413959538791</v>
       </c>
       <c r="Q5">
-        <v>166.6916666666667</v>
+        <v>166.69166666666669</v>
       </c>
       <c r="R5">
-        <v>6.738411839831718</v>
+        <v>6.7384118398317181</v>
       </c>
       <c r="S5">
-        <v>0.008183018271130743</v>
+        <v>8.1830182711307431E-3</v>
       </c>
       <c r="T5">
-        <v>5.114386419456714</v>
+        <v>5.1143864194567143</v>
       </c>
       <c r="U5">
-        <v>83.91666666666666</v>
+        <v>83.916666666666657</v>
       </c>
       <c r="V5">
-        <v>0.0121508964399359</v>
+        <v>1.21508964399359E-2</v>
       </c>
       <c r="W5">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X5">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y5">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z5">
-        <v>0.03700925887712297</v>
+        <v>3.7009258877122968E-2</v>
       </c>
       <c r="AA5">
-        <v>-0.01509455708178825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>-1.509455708178825E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>105.525</v>
+        <v>105.52500000000001</v>
       </c>
       <c r="B6">
         <v>20.55555555555555</v>
       </c>
       <c r="C6">
-        <v>0.0494407191097322</v>
+        <v>4.9440719109732197E-2</v>
       </c>
       <c r="D6">
         <v>30.90044944358263</v>
       </c>
       <c r="E6">
-        <v>105.525</v>
+        <v>105.52500000000001</v>
       </c>
       <c r="F6">
         <v>4.107460035523979</v>
       </c>
       <c r="G6">
-        <v>-0.02131442770190268</v>
+        <v>-2.1314427701902679E-2</v>
       </c>
       <c r="H6">
         <v>-13.32151731368918</v>
       </c>
       <c r="I6">
-        <v>105.525</v>
+        <v>105.52500000000001</v>
       </c>
       <c r="J6">
         <v>0.3</v>
       </c>
       <c r="K6">
-        <v>-0.0005381865514860711</v>
+        <v>-5.3818655148607107E-4</v>
       </c>
       <c r="L6">
-        <v>-0.3363665946787944</v>
+        <v>-0.33636659467879437</v>
       </c>
       <c r="M6">
-        <v>200.6916666666667</v>
+        <v>200.69166666666669</v>
       </c>
       <c r="N6">
-        <v>0.03708749621556161</v>
+        <v>3.7087496215561608E-2</v>
       </c>
       <c r="O6">
-        <v>0.002789474714139853</v>
+        <v>2.7894747141398528E-3</v>
       </c>
       <c r="P6">
-        <v>1.743421696337408</v>
+        <v>1.7434216963374081</v>
       </c>
       <c r="Q6">
-        <v>200.6916666666667</v>
+        <v>200.69166666666669</v>
       </c>
       <c r="R6">
-        <v>5.647960333558711</v>
+        <v>5.6479603335587107</v>
       </c>
       <c r="S6">
-        <v>0.009118846315278997</v>
+        <v>9.1188463152789972E-3</v>
       </c>
       <c r="T6">
-        <v>5.699278947049373</v>
+        <v>5.6992789470493728</v>
       </c>
       <c r="U6">
-        <v>105.525</v>
+        <v>105.52500000000001</v>
       </c>
       <c r="V6">
-        <v>0.008103523031462943</v>
+        <v>8.103523031462943E-3</v>
       </c>
       <c r="W6">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X6">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y6">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z6">
-        <v>-0.4311107946184186</v>
+        <v>-0.43111079461841861</v>
       </c>
       <c r="AA6">
-        <v>-0.01088549198266275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>-1.088549198266275E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>129.9</v>
       </c>
       <c r="B7">
-        <v>17.66666666666666</v>
+        <v>17.666666666666661</v>
       </c>
       <c r="C7">
-        <v>0.03303085800238173</v>
+        <v>3.303085800238173E-2</v>
       </c>
       <c r="D7">
         <v>20.64428625148858</v>
@@ -978,137 +1025,137 @@
         <v>2.33126110124334</v>
       </c>
       <c r="G7">
-        <v>-0.02318708491002975</v>
+        <v>-2.318708491002975E-2</v>
       </c>
       <c r="H7">
-        <v>-14.49192806876859</v>
+        <v>-14.491928068768591</v>
       </c>
       <c r="I7">
         <v>129.9</v>
       </c>
       <c r="J7">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="K7">
-        <v>-0.0004754460491120783</v>
+        <v>-4.7544604911207831E-4</v>
       </c>
       <c r="L7">
-        <v>-0.2971537806950489</v>
+        <v>-0.29715378069504889</v>
       </c>
       <c r="M7">
-        <v>274.4916666666667</v>
+        <v>274.49166666666667</v>
       </c>
       <c r="N7">
         <v>0.3648198607326672</v>
       </c>
       <c r="O7">
-        <v>-7.691901339623369E-05</v>
+        <v>-7.6919013396233694E-5</v>
       </c>
       <c r="P7">
-        <v>-0.04807438337264606</v>
+        <v>-4.8074383372646058E-2</v>
       </c>
       <c r="Q7">
-        <v>274.4916666666667</v>
+        <v>274.49166666666667</v>
       </c>
       <c r="R7">
         <v>3.494478251070543</v>
       </c>
       <c r="S7">
-        <v>0.009446653985490308</v>
+        <v>9.4466539854903084E-3</v>
       </c>
       <c r="T7">
-        <v>5.904158740931442</v>
+        <v>5.9041587409314422</v>
       </c>
       <c r="U7">
         <v>129.9</v>
       </c>
       <c r="V7">
-        <v>0.004678872620454603</v>
+        <v>4.6788726204546032E-3</v>
       </c>
       <c r="W7">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X7">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y7">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z7">
-        <v>-0.7019825191449103</v>
+        <v>-0.70198251914491028</v>
       </c>
       <c r="AA7">
-        <v>-0.01439399633753975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>-1.4393996337539751E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>155.125</v>
       </c>
       <c r="B8">
-        <v>32.08916183327647</v>
+        <v>32.089161833276471</v>
       </c>
       <c r="C8">
-        <v>0.02977038420439976</v>
+        <v>2.9770384204399761E-2</v>
       </c>
       <c r="D8">
-        <v>18.60649012774985</v>
+        <v>18.606490127749851</v>
       </c>
       <c r="E8">
         <v>155.125</v>
       </c>
       <c r="F8">
-        <v>0.8595935876855055</v>
+        <v>0.85959358768550553</v>
       </c>
       <c r="G8">
-        <v>-0.008614869997346999</v>
+        <v>-8.6148699973469991E-3</v>
       </c>
       <c r="H8">
-        <v>-5.384293748341874</v>
+        <v>-5.3842937483418742</v>
       </c>
       <c r="I8">
         <v>155.125</v>
       </c>
       <c r="J8">
-        <v>0.3500140736949846</v>
+        <v>0.35001407369498461</v>
       </c>
       <c r="K8">
-        <v>-0.0003453040412860792</v>
+        <v>-3.4530404128607921E-4</v>
       </c>
       <c r="L8">
-        <v>-0.2158150258037995</v>
+        <v>-0.21581502580379949</v>
       </c>
       <c r="U8">
         <v>155.125</v>
       </c>
       <c r="V8">
-        <v>0.002469194454841347</v>
+        <v>2.469194454841347E-3</v>
       </c>
       <c r="W8">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X8">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y8">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z8">
-        <v>-0.289377185668763</v>
+        <v>-0.28937718566876303</v>
       </c>
       <c r="AA8">
-        <v>-0.01159891114992889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>-1.159891114992889E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>177</v>
       </c>
       <c r="B9">
-        <v>29.52777777777778</v>
+        <v>29.527777777777779</v>
       </c>
       <c r="C9">
-        <v>0.03629977573724161</v>
+        <v>3.6299775737241607E-2</v>
       </c>
       <c r="D9">
         <v>22.687359835776</v>
@@ -1117,167 +1164,167 @@
         <v>177</v>
       </c>
       <c r="F9">
-        <v>0.7215808170515099</v>
+        <v>0.72158081705150989</v>
       </c>
       <c r="G9">
-        <v>-0.002483032528414532</v>
+        <v>-2.4830325284145322E-3</v>
       </c>
       <c r="H9">
-        <v>-1.551895330259082</v>
+        <v>-1.5518953302590821</v>
       </c>
       <c r="I9">
         <v>177</v>
       </c>
       <c r="J9">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="K9">
-        <v>0.0002137941897712808</v>
+        <v>2.1379418977128081E-4</v>
       </c>
       <c r="L9">
-        <v>0.1336213686070505</v>
+        <v>0.13362136860705051</v>
       </c>
       <c r="U9">
         <v>177</v>
       </c>
       <c r="V9">
-        <v>0.001369614502453544</v>
+        <v>1.3696145024535439E-3</v>
       </c>
       <c r="W9">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X9">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y9">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z9">
-        <v>-0.06840352255584528</v>
+        <v>-6.8403522555845281E-2</v>
       </c>
       <c r="AA9">
-        <v>0.005889683487822199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>5.889683487822199E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>200.6916666666667</v>
+        <v>200.69166666666669</v>
       </c>
       <c r="B10">
-        <v>25.58333333333334</v>
+        <v>25.583333333333339</v>
       </c>
       <c r="C10">
-        <v>0.0459520383986211</v>
+        <v>4.5952038398621102E-2</v>
       </c>
       <c r="D10">
-        <v>28.72002399913818</v>
+        <v>28.720023999138181</v>
       </c>
       <c r="E10">
-        <v>200.6916666666667</v>
+        <v>200.69166666666669</v>
       </c>
       <c r="F10">
         <v>0.3330373001776199</v>
       </c>
       <c r="G10">
-        <v>-0.002619434544211183</v>
+        <v>-2.619434544211183E-3</v>
       </c>
       <c r="H10">
         <v>-1.637146590131989</v>
       </c>
       <c r="I10">
-        <v>200.6916666666667</v>
+        <v>200.69166666666669</v>
       </c>
       <c r="J10">
         <v>0.315</v>
       </c>
       <c r="K10">
-        <v>0.0005199138923511459</v>
+        <v>5.1991389235114588E-4</v>
       </c>
       <c r="L10">
-        <v>0.3249461827194662</v>
+        <v>0.32494618271946618</v>
       </c>
       <c r="U10">
-        <v>200.6916666666667</v>
+        <v>200.69166666666669</v>
       </c>
       <c r="V10">
-        <v>0.0007087365629518282</v>
+        <v>7.0873656295182823E-4</v>
       </c>
       <c r="W10">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X10">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y10">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z10">
-        <v>-0.05700366372190761</v>
+        <v>-5.7003663721907613E-2</v>
       </c>
       <c r="AA10">
-        <v>0.01131427267363067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>1.1314272673630671E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>225.7916666666667</v>
+        <v>225.79166666666671</v>
       </c>
       <c r="B11">
-        <v>20.24350400094487</v>
+        <v>20.243504000944871</v>
       </c>
       <c r="C11">
-        <v>0.0516392936527501</v>
+        <v>5.16392936527501E-2</v>
       </c>
       <c r="D11">
-        <v>32.27455853296881</v>
+        <v>32.274558532968811</v>
       </c>
       <c r="E11">
-        <v>225.7916666666667</v>
+        <v>225.79166666666671</v>
       </c>
       <c r="F11">
-        <v>0.27753108348135</v>
+        <v>0.27753108348135003</v>
       </c>
       <c r="G11">
-        <v>0.002510664109368899</v>
+        <v>2.510664109368899E-3</v>
       </c>
       <c r="H11">
         <v>1.569165068355562</v>
       </c>
       <c r="I11">
-        <v>225.7916666666667</v>
+        <v>225.79166666666671</v>
       </c>
       <c r="J11">
-        <v>0.2680640446452299</v>
+        <v>0.26806404464522993</v>
       </c>
       <c r="K11">
-        <v>0.0002450899538575753</v>
+        <v>2.4508995385757532E-4</v>
       </c>
       <c r="L11">
-        <v>0.1531812211609846</v>
+        <v>0.15318122116098459</v>
       </c>
       <c r="U11">
-        <v>225.7916666666667</v>
+        <v>225.79166666666671</v>
       </c>
       <c r="V11">
-        <v>0.0003482963197341305</v>
+        <v>3.482963197341305E-4</v>
       </c>
       <c r="W11">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X11">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y11">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z11">
-        <v>0.04861925738667015</v>
+        <v>4.8619257386670153E-2</v>
       </c>
       <c r="AA11">
-        <v>0.004746191059577416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>4.7461910595774162E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>250</v>
       </c>
@@ -1285,31 +1332,31 @@
         <v>15.83333333333333</v>
       </c>
       <c r="C12">
-        <v>0.06345622845508617</v>
+        <v>6.3456228455086167E-2</v>
       </c>
       <c r="D12">
-        <v>39.66014278442885</v>
+        <v>39.660142784428849</v>
       </c>
       <c r="E12">
         <v>250</v>
       </c>
       <c r="F12">
-        <v>0.7215808170515099</v>
+        <v>0.72158081705150989</v>
       </c>
       <c r="G12">
-        <v>0.007989561935336526</v>
+        <v>7.9895619353365262E-3</v>
       </c>
       <c r="H12">
-        <v>4.993476209585329</v>
+        <v>4.9934762095853289</v>
       </c>
       <c r="I12">
         <v>250</v>
       </c>
       <c r="J12">
-        <v>0.265</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="K12">
-        <v>-0.0003829678824951795</v>
+        <v>-3.8296788249517948E-4</v>
       </c>
       <c r="L12">
         <v>-0.2393549265594872</v>
@@ -1318,25 +1365,25 @@
         <v>250</v>
       </c>
       <c r="V12">
-        <v>0.0001744535740466672</v>
+        <v>1.7445357404666719E-4</v>
       </c>
       <c r="W12">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X12">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y12">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z12">
         <v>0.1259066624325377</v>
       </c>
       <c r="AA12">
-        <v>-0.006035150399243176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>-6.0351503992431763E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>274.9083333333333</v>
       </c>
@@ -1344,7 +1391,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="C13">
-        <v>0.06455737682476068</v>
+        <v>6.4557376824760676E-2</v>
       </c>
       <c r="D13">
         <v>40.34836051547542</v>
@@ -1353,164 +1400,164 @@
         <v>274.9083333333333</v>
       </c>
       <c r="F13">
-        <v>0.9991119005328598</v>
+        <v>0.99911190053285981</v>
       </c>
       <c r="G13">
-        <v>-0.001108445892937336</v>
+        <v>-1.1084458929373361E-3</v>
       </c>
       <c r="H13">
-        <v>-0.692778683085835</v>
+        <v>-0.69277868308583501</v>
       </c>
       <c r="I13">
         <v>274.9083333333333</v>
       </c>
       <c r="J13">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K13">
-        <v>0.0001592173560876964</v>
+        <v>1.592173560876964E-4</v>
       </c>
       <c r="L13">
-        <v>0.09951084755481025</v>
+        <v>9.9510847554810253E-2</v>
       </c>
       <c r="U13">
         <v>274.9083333333333</v>
       </c>
       <c r="V13">
-        <v>8.538001531940315E-05</v>
+        <v>8.5380015319403148E-5</v>
       </c>
       <c r="W13">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X13">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y13">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z13">
-        <v>-0.01716993390153047</v>
+        <v>-1.716993390153047E-2</v>
       </c>
       <c r="AA13">
-        <v>0.00246629221815948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>2.4662922181594802E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>297.8333333333333</v>
+        <v>297.83333333333331</v>
       </c>
       <c r="B14">
-        <v>31.73328785551046</v>
+        <v>31.733287855510461</v>
       </c>
       <c r="C14">
-        <v>0.0573519166666943</v>
+        <v>5.73519166666943E-2</v>
       </c>
       <c r="D14">
-        <v>35.84494791668394</v>
+        <v>35.844947916683942</v>
       </c>
       <c r="E14">
-        <v>297.8333333333333</v>
+        <v>297.83333333333331</v>
       </c>
       <c r="F14">
-        <v>0.7160443229874257</v>
+        <v>0.71604432298742571</v>
       </c>
       <c r="G14">
-        <v>-0.006242743465146683</v>
+        <v>-6.2427434651466827E-3</v>
       </c>
       <c r="H14">
         <v>-3.901714665716677</v>
       </c>
       <c r="I14">
-        <v>297.8333333333333</v>
+        <v>297.83333333333331</v>
       </c>
       <c r="J14">
         <v>0.2534539451055926</v>
       </c>
       <c r="K14">
-        <v>0.0006177522405622933</v>
+        <v>6.1775224056229334E-4</v>
       </c>
       <c r="L14">
-        <v>0.3860951503514333</v>
+        <v>0.38609515035143332</v>
       </c>
       <c r="U14">
-        <v>297.8333333333333</v>
+        <v>297.83333333333331</v>
       </c>
       <c r="V14">
-        <v>4.416959736825752E-05</v>
+        <v>4.4169597368257518E-5</v>
       </c>
       <c r="W14">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X14">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y14">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z14">
-        <v>-0.1088497791874496</v>
+        <v>-0.10884977918744961</v>
       </c>
       <c r="AA14">
-        <v>0.01077125711687047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>1.0771257116870469E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>321.625</v>
       </c>
       <c r="B15">
-        <v>28.58333333333334</v>
+        <v>28.583333333333339</v>
       </c>
       <c r="C15">
-        <v>0.0489653615426435</v>
+        <v>4.8965361542643498E-2</v>
       </c>
       <c r="D15">
-        <v>30.60335096415218</v>
+        <v>30.603350964152181</v>
       </c>
       <c r="E15">
         <v>321.625</v>
       </c>
       <c r="F15">
-        <v>0.3885435168738899</v>
+        <v>0.38854351687388988</v>
       </c>
       <c r="G15">
-        <v>-0.0007661122907074766</v>
+        <v>-7.6611229070747665E-4</v>
       </c>
       <c r="H15">
-        <v>-0.4788201816921729</v>
+        <v>-0.47882018169217289</v>
       </c>
       <c r="I15">
         <v>321.625</v>
       </c>
       <c r="J15">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="K15">
-        <v>-0.0003126275509282059</v>
+        <v>-3.1262755092820589E-4</v>
       </c>
       <c r="L15">
-        <v>-0.1953922193301287</v>
+        <v>-0.19539221933012871</v>
       </c>
       <c r="U15">
         <v>321.625</v>
       </c>
       <c r="V15">
-        <v>2.227173856214651E-05</v>
+        <v>2.227173856214651E-5</v>
       </c>
       <c r="W15">
-        <v>0.02881172992825039</v>
+        <v>2.8811729928250391E-2</v>
       </c>
       <c r="X15">
-        <v>0.4147004685724266</v>
+        <v>0.41470046857242659</v>
       </c>
       <c r="Y15">
-        <v>3.808424449765378</v>
+        <v>3.8084244497653779</v>
       </c>
       <c r="Z15">
-        <v>-0.01564600498334473</v>
+        <v>-1.564600498334473E-2</v>
       </c>
       <c r="AA15">
-        <v>-0.00638466746857248</v>
+        <v>-6.3846674685724804E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1519,14 +1566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1609,18 +1656,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.54458333333333</v>
       </c>
       <c r="B2">
-        <v>29.05555555555556</v>
+        <v>29.055555555555561</v>
       </c>
       <c r="C2">
-        <v>0.09426490649365415</v>
+        <v>9.4264906493654155E-2</v>
       </c>
       <c r="D2">
-        <v>58.91556655853385</v>
+        <v>58.915566558533847</v>
       </c>
       <c r="E2">
         <v>10.54458333333333</v>
@@ -1629,7 +1676,7 @@
         <v>2.553285968028419</v>
       </c>
       <c r="G2">
-        <v>0.07233725293334607</v>
+        <v>7.2337252933346072E-2</v>
       </c>
       <c r="H2">
         <v>45.21078308334129</v>
@@ -1641,31 +1688,31 @@
         <v>0.15</v>
       </c>
       <c r="K2">
-        <v>-0.001670980134783121</v>
+        <v>-1.6709801347831209E-3</v>
       </c>
       <c r="L2">
-        <v>-1.04436258423945</v>
+        <v>-1.0443625842394499</v>
       </c>
       <c r="M2">
-        <v>21.61958333333333</v>
+        <v>21.619583333333331</v>
       </c>
       <c r="N2">
-        <v>3.883212231304874</v>
+        <v>3.8832122313048738</v>
       </c>
       <c r="O2">
-        <v>0.03892983509720198</v>
+        <v>3.8929835097201979E-2</v>
       </c>
       <c r="P2">
-        <v>24.33114693575124</v>
+        <v>24.331146935751239</v>
       </c>
       <c r="Q2">
-        <v>21.61958333333333</v>
+        <v>21.619583333333331</v>
       </c>
       <c r="R2">
         <v>8.998196979941401</v>
       </c>
       <c r="S2">
-        <v>0.00208151387378174</v>
+        <v>2.0815138737817398E-3</v>
       </c>
       <c r="T2">
         <v>1.300946171113587</v>
@@ -1674,285 +1721,285 @@
         <v>10.54458333333333</v>
       </c>
       <c r="V2">
-        <v>0.02231884634129848</v>
+        <v>2.2318846341298479E-2</v>
       </c>
       <c r="W2">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X2">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y2">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z2">
-        <v>0.7673826413673445</v>
+        <v>0.76738264136734446</v>
       </c>
       <c r="AA2">
-        <v>-0.01772642860358228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>-1.772642860358228E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>32.16416666666667</v>
+        <v>32.164166666666667</v>
       </c>
       <c r="B3">
         <v>27.75</v>
       </c>
       <c r="C3">
-        <v>0.07161622762377994</v>
+        <v>7.1616227623779935E-2</v>
       </c>
       <c r="D3">
-        <v>44.76014226486246</v>
+        <v>44.760142264862459</v>
       </c>
       <c r="E3">
-        <v>32.16416666666667</v>
+        <v>32.164166666666667</v>
       </c>
       <c r="F3">
         <v>3.38587921847247</v>
       </c>
       <c r="G3">
-        <v>0.03995590844814376</v>
+        <v>3.9955908448143763E-2</v>
       </c>
       <c r="H3">
         <v>24.97244278008985</v>
       </c>
       <c r="I3">
-        <v>32.16416666666667</v>
+        <v>32.164166666666667</v>
       </c>
       <c r="J3">
         <v>0.18</v>
       </c>
       <c r="K3">
-        <v>-0.001788238184832054</v>
+        <v>-1.7882381848320539E-3</v>
       </c>
       <c r="L3">
-        <v>-1.117648865520034</v>
+        <v>-1.1176488655200341</v>
       </c>
       <c r="M3">
-        <v>57.38083333333333</v>
+        <v>57.380833333333328</v>
       </c>
       <c r="N3">
         <v>2.6434302149561</v>
       </c>
       <c r="O3">
-        <v>0.02638973482672644</v>
+        <v>2.6389734826726439E-2</v>
       </c>
       <c r="P3">
-        <v>16.49358426670402</v>
+        <v>16.493584266704019</v>
       </c>
       <c r="Q3">
-        <v>57.38083333333333</v>
+        <v>57.380833333333328</v>
       </c>
       <c r="R3">
-        <v>8.840057095635188</v>
+        <v>8.8400570956351885</v>
       </c>
       <c r="S3">
-        <v>0.004935816300754189</v>
+        <v>4.9358163007541889E-3</v>
       </c>
       <c r="T3">
-        <v>3.084885187971368</v>
+        <v>3.0848851879713681</v>
       </c>
       <c r="U3">
-        <v>32.16416666666667</v>
+        <v>32.164166666666667</v>
       </c>
       <c r="V3">
-        <v>0.02016276807924244</v>
+        <v>2.016276807924244E-2</v>
       </c>
       <c r="W3">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X3">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y3">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z3">
-        <v>0.557916966222283</v>
+        <v>0.55791696622228304</v>
       </c>
       <c r="AA3">
-        <v>-0.02496973443262285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>-2.4969734432622851E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>57.38083333333333</v>
+        <v>57.380833333333328</v>
       </c>
       <c r="B4">
-        <v>25.86111111111111</v>
+        <v>25.861111111111111</v>
       </c>
       <c r="C4">
-        <v>0.05781758398323852</v>
+        <v>5.7817583983238517E-2</v>
       </c>
       <c r="D4">
         <v>36.13598998952407</v>
       </c>
       <c r="E4">
-        <v>57.38083333333333</v>
+        <v>57.380833333333328</v>
       </c>
       <c r="F4">
-        <v>3.940941385435169</v>
+        <v>3.9409413854351691</v>
       </c>
       <c r="G4">
-        <v>0.01574728495928568</v>
+        <v>1.5747284959285679E-2</v>
       </c>
       <c r="H4">
-        <v>9.842053099553549</v>
+        <v>9.8420530995535493</v>
       </c>
       <c r="I4">
-        <v>57.38083333333333</v>
+        <v>57.380833333333328</v>
       </c>
       <c r="J4">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="K4">
-        <v>-0.001472763922342252</v>
+        <v>-1.472763922342252E-3</v>
       </c>
       <c r="L4">
-        <v>-0.9204774514639072</v>
+        <v>-0.92047745146390725</v>
       </c>
       <c r="M4">
-        <v>108.0725</v>
+        <v>108.07250000000001</v>
       </c>
       <c r="N4">
         <v>1.382455343627006</v>
       </c>
       <c r="O4">
-        <v>0.01403259653089133</v>
+        <v>1.4032596530891331E-2</v>
       </c>
       <c r="P4">
-        <v>8.770372831807082</v>
+        <v>8.7703728318070819</v>
       </c>
       <c r="Q4">
-        <v>108.0725</v>
+        <v>108.07250000000001</v>
       </c>
       <c r="R4">
-        <v>7.909247990383892</v>
+        <v>7.9092479903838919</v>
       </c>
       <c r="S4">
-        <v>0.006122922293827899</v>
+        <v>6.1229222938278989E-3</v>
       </c>
       <c r="T4">
-        <v>3.826826433642437</v>
+        <v>3.8268264336424371</v>
       </c>
       <c r="U4">
-        <v>57.38083333333333</v>
+        <v>57.380833333333328</v>
       </c>
       <c r="V4">
-        <v>0.01668910669797953</v>
+        <v>1.6689106697979531E-2</v>
       </c>
       <c r="W4">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X4">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y4">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z4">
-        <v>0.2723615183202893</v>
+        <v>0.27236151832028932</v>
       </c>
       <c r="AA4">
-        <v>-0.02547259537460455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>-2.5472595374604549E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>83.6725</v>
+        <v>83.672499999999999</v>
       </c>
       <c r="B5">
         <v>22.21681626546988</v>
       </c>
       <c r="C5">
-        <v>0.04910470929875418</v>
+        <v>4.9104709298754178E-2</v>
       </c>
       <c r="D5">
         <v>30.69044331172136</v>
       </c>
       <c r="E5">
-        <v>83.6725</v>
+        <v>83.672499999999999</v>
       </c>
       <c r="F5">
-        <v>4.173292990210252</v>
+        <v>4.1732929902102516</v>
       </c>
       <c r="G5">
-        <v>0.0003129482157784845</v>
+        <v>3.129482157784845E-4</v>
       </c>
       <c r="H5">
-        <v>0.1955926348615528</v>
+        <v>0.19559263486155279</v>
       </c>
       <c r="I5">
-        <v>83.6725</v>
+        <v>83.672499999999999</v>
       </c>
       <c r="J5">
-        <v>0.2690330477356181</v>
+        <v>0.26903304773561809</v>
       </c>
       <c r="K5">
-        <v>-0.0009851635156404746</v>
+        <v>-9.851635156404746E-4</v>
       </c>
       <c r="L5">
-        <v>-0.6157271972752966</v>
+        <v>-0.61572719727529657</v>
       </c>
       <c r="M5">
         <v>166.4725</v>
       </c>
       <c r="N5">
-        <v>0.49349076597033</v>
+        <v>0.49349076597032998</v>
       </c>
       <c r="O5">
-        <v>0.004922767021892921</v>
+        <v>4.9227670218929213E-3</v>
       </c>
       <c r="P5">
-        <v>3.076729388683076</v>
+        <v>3.0767293886830762</v>
       </c>
       <c r="Q5">
         <v>166.4725</v>
       </c>
       <c r="R5">
-        <v>6.478100818871609</v>
+        <v>6.4781008188716092</v>
       </c>
       <c r="S5">
-        <v>0.007429902648411237</v>
+        <v>7.4299026484112374E-3</v>
       </c>
       <c r="T5">
-        <v>4.643689155257023</v>
+        <v>4.6436891552570234</v>
       </c>
       <c r="U5">
-        <v>83.6725</v>
+        <v>83.672499999999999</v>
       </c>
       <c r="V5">
-        <v>0.0123488064803477</v>
+        <v>1.2348806480347699E-2</v>
       </c>
       <c r="W5">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X5">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y5">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z5">
-        <v>0.006373079491714336</v>
+        <v>6.3730794917143362E-3</v>
       </c>
       <c r="AA5">
-        <v>-0.02006250581073023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>-2.0062505810730231E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105.2475</v>
       </c>
       <c r="B6">
-        <v>19.94444444444444</v>
+        <v>19.944444444444439</v>
       </c>
       <c r="C6">
-        <v>0.04643108973024122</v>
+        <v>4.6431089730241223E-2</v>
       </c>
       <c r="D6">
-        <v>29.01943108140076</v>
+        <v>29.019431081400761</v>
       </c>
       <c r="E6">
         <v>105.2475</v>
@@ -1961,10 +2008,10 @@
         <v>3.829928952042629</v>
       </c>
       <c r="G6">
-        <v>-0.01940899312426298</v>
+        <v>-1.9408993124262981E-2</v>
       </c>
       <c r="H6">
-        <v>-12.13062070266436</v>
+        <v>-12.130620702664361</v>
       </c>
       <c r="I6">
         <v>105.2475</v>
@@ -1973,31 +2020,31 @@
         <v>0.31</v>
       </c>
       <c r="K6">
-        <v>-0.0006138737811028025</v>
+        <v>-6.1387378110280247E-4</v>
       </c>
       <c r="L6">
-        <v>-0.3836711131892515</v>
+        <v>-0.38367111318925151</v>
       </c>
       <c r="M6">
-        <v>200.4141666666667</v>
+        <v>200.41416666666669</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.002608894420382544</v>
+        <v>2.6088944203825439E-3</v>
       </c>
       <c r="P6">
-        <v>1.63055901273909</v>
+        <v>1.6305590127390901</v>
       </c>
       <c r="Q6">
-        <v>200.4141666666667</v>
+        <v>200.41416666666669</v>
       </c>
       <c r="R6">
-        <v>5.380887987378859</v>
+        <v>5.3808879873788591</v>
       </c>
       <c r="S6">
-        <v>0.008552242341363057</v>
+        <v>8.5522423413630574E-3</v>
       </c>
       <c r="T6">
         <v>5.345151463351911</v>
@@ -2006,285 +2053,285 @@
         <v>105.2475</v>
       </c>
       <c r="V6">
-        <v>0.008851219326268403</v>
+        <v>8.8512193262684034E-3</v>
       </c>
       <c r="W6">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X6">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y6">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z6">
         <v>-0.4180171785117856</v>
       </c>
       <c r="AA6">
-        <v>-0.01322117970242206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>-1.3221179702422059E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>129.6475</v>
+        <v>129.64750000000001</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7">
-        <v>0.03563849137578959</v>
+        <v>3.5638491375789588E-2</v>
       </c>
       <c r="D7">
         <v>22.27405710986849</v>
       </c>
       <c r="E7">
-        <v>129.6475</v>
+        <v>129.64750000000001</v>
       </c>
       <c r="F7">
-        <v>2.109236234458259</v>
+        <v>2.1092362344582591</v>
       </c>
       <c r="G7">
-        <v>-0.02215735897508556</v>
+        <v>-2.2157358975085559E-2</v>
       </c>
       <c r="H7">
         <v>-13.84834935942847</v>
       </c>
       <c r="I7">
-        <v>129.6475</v>
+        <v>129.64750000000001</v>
       </c>
       <c r="J7">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K7">
-        <v>-0.0003326053996325572</v>
+        <v>-3.3260539963255722E-4</v>
       </c>
       <c r="L7">
-        <v>-0.2078783747703482</v>
+        <v>-0.20787837477034821</v>
       </c>
       <c r="M7">
-        <v>274.2058333333333</v>
+        <v>274.20583333333332</v>
       </c>
       <c r="N7">
-        <v>0.4310475325461702</v>
+        <v>0.43104753254617018</v>
       </c>
       <c r="O7">
-        <v>-0.0002806423552621917</v>
+        <v>-2.8064235526219168E-4</v>
       </c>
       <c r="P7">
         <v>-0.1754014720388698</v>
       </c>
       <c r="Q7">
-        <v>274.2058333333333</v>
+        <v>274.20583333333332</v>
       </c>
       <c r="R7">
         <v>3.080159266771842</v>
       </c>
       <c r="S7">
-        <v>0.008933003848459692</v>
+        <v>8.9330038484596915E-3</v>
       </c>
       <c r="T7">
         <v>5.583127405287307</v>
       </c>
       <c r="U7">
-        <v>129.6475</v>
+        <v>129.64750000000001</v>
       </c>
       <c r="V7">
-        <v>0.005586189008421527</v>
+        <v>5.5861890084215266E-3</v>
       </c>
       <c r="W7">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X7">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y7">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z7">
-        <v>-0.6217255029526247</v>
+        <v>-0.62172550295262474</v>
       </c>
       <c r="AA7">
-        <v>-0.00933275755489771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>-9.3327575548977099E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>154.9225</v>
+        <v>154.92250000000001</v>
       </c>
       <c r="B8">
-        <v>31.17258710281967</v>
+        <v>31.172587102819669</v>
       </c>
       <c r="C8">
-        <v>0.03314247405519233</v>
+        <v>3.3142474055192328E-2</v>
       </c>
       <c r="D8">
         <v>20.7140462844952</v>
       </c>
       <c r="E8">
-        <v>154.9225</v>
+        <v>154.92250000000001</v>
       </c>
       <c r="F8">
-        <v>0.806719665150414</v>
+        <v>0.80671966515041404</v>
       </c>
       <c r="G8">
-        <v>-0.006413653426432108</v>
+        <v>-6.4136534264321076E-3</v>
       </c>
       <c r="H8">
-        <v>-4.008533391520067</v>
+        <v>-4.0085333915200669</v>
       </c>
       <c r="I8">
-        <v>154.9225</v>
+        <v>154.92250000000001</v>
       </c>
       <c r="J8">
-        <v>0.3398032200357781</v>
+        <v>0.33980322003577812</v>
       </c>
       <c r="K8">
-        <v>-0.0001603316691392156</v>
+        <v>-1.603316691392156E-4</v>
       </c>
       <c r="L8">
         <v>-0.1002072932120098</v>
       </c>
       <c r="U8">
-        <v>154.9225</v>
+        <v>154.92250000000001</v>
       </c>
       <c r="V8">
-        <v>0.003229346958114174</v>
+        <v>3.2293469581141741E-3</v>
       </c>
       <c r="W8">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X8">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y8">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z8">
-        <v>-0.1935176419162739</v>
+        <v>-0.19351764191627391</v>
       </c>
       <c r="AA8">
-        <v>-0.004837649382246313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>-4.837649382246313E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>176.7725</v>
+        <v>176.77250000000001</v>
       </c>
       <c r="B9">
-        <v>28.33333333333334</v>
+        <v>28.333333333333339</v>
       </c>
       <c r="C9">
-        <v>0.03634871028913669</v>
+        <v>3.6348710289136693E-2</v>
       </c>
       <c r="D9">
         <v>22.71794393071043</v>
       </c>
       <c r="E9">
-        <v>176.7725</v>
+        <v>176.77250000000001</v>
       </c>
       <c r="F9">
-        <v>0.7770870337477799</v>
+        <v>0.77708703374777988</v>
       </c>
       <c r="G9">
-        <v>-0.002018355786119064</v>
+        <v>-2.0183557861190638E-3</v>
       </c>
       <c r="H9">
         <v>-1.261472366324415</v>
       </c>
       <c r="I9">
-        <v>176.7725</v>
+        <v>176.77250000000001</v>
       </c>
       <c r="J9">
         <v>0.34</v>
       </c>
       <c r="K9">
-        <v>0.0002069976580264582</v>
+        <v>2.0699765802645819E-4</v>
       </c>
       <c r="L9">
-        <v>0.1293735362665364</v>
+        <v>0.12937353626653639</v>
       </c>
       <c r="U9">
-        <v>176.7725</v>
+        <v>176.77250000000001</v>
       </c>
       <c r="V9">
-        <v>0.001933668313332638</v>
+        <v>1.933668313332638E-3</v>
       </c>
       <c r="W9">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X9">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y9">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z9">
-        <v>-0.05552757635866595</v>
+        <v>-5.5527576358665953E-2</v>
       </c>
       <c r="AA9">
-        <v>0.005694773112440314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>5.6947731124403142E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>200.4141666666667</v>
+        <v>200.41416666666669</v>
       </c>
       <c r="B10">
-        <v>24.27777777777778</v>
+        <v>24.277777777777779</v>
       </c>
       <c r="C10">
-        <v>0.04414973446443976</v>
+        <v>4.414973446443976E-2</v>
       </c>
       <c r="D10">
-        <v>27.59358404027485</v>
+        <v>27.593584040274848</v>
       </c>
       <c r="E10">
-        <v>200.4141666666667</v>
+        <v>200.41416666666669</v>
       </c>
       <c r="F10">
-        <v>0.3885435168738899</v>
+        <v>0.38854351687388988</v>
       </c>
       <c r="G10">
-        <v>-0.001871636555464534</v>
+        <v>-1.8716365554645341E-3</v>
       </c>
       <c r="H10">
-        <v>-1.169772847165334</v>
+        <v>-1.1697728471653339</v>
       </c>
       <c r="I10">
-        <v>200.4141666666667</v>
+        <v>200.41416666666669</v>
       </c>
       <c r="J10">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="K10">
-        <v>0.0004000084503216066</v>
+        <v>4.0000845032160659E-4</v>
       </c>
       <c r="L10">
-        <v>0.2500052814510041</v>
+        <v>0.25000528145100409</v>
       </c>
       <c r="U10">
-        <v>200.4141666666667</v>
+        <v>200.41416666666669</v>
       </c>
       <c r="V10">
-        <v>0.001082617215334298</v>
+        <v>1.082617215334298E-3</v>
       </c>
       <c r="W10">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X10">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y10">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z10">
-        <v>-0.04239292893079655</v>
+        <v>-4.2392928930796547E-2</v>
       </c>
       <c r="AA10">
-        <v>0.009060268542357643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>9.060268542357643E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>225.4975</v>
       </c>
@@ -2292,31 +2339,31 @@
         <v>18.59400005905454</v>
       </c>
       <c r="C11">
-        <v>0.05213801981339769</v>
+        <v>5.213801981339769E-2</v>
       </c>
       <c r="D11">
-        <v>32.58626238337356</v>
+        <v>32.586262383373558</v>
       </c>
       <c r="E11">
         <v>225.4975</v>
       </c>
       <c r="F11">
-        <v>0.3885435168738899</v>
+        <v>0.38854351687388988</v>
       </c>
       <c r="G11">
-        <v>0.002868053006786645</v>
+        <v>2.8680530067866452E-3</v>
       </c>
       <c r="H11">
-        <v>1.792533129241653</v>
+        <v>1.7925331292416531</v>
       </c>
       <c r="I11">
         <v>225.4975</v>
       </c>
       <c r="J11">
-        <v>0.2581171937284082</v>
+        <v>0.25811719372840819</v>
       </c>
       <c r="K11">
-        <v>0.0003207478784604133</v>
+        <v>3.2074787846041332E-4</v>
       </c>
       <c r="L11">
         <v>0.2004674240377583</v>
@@ -2325,258 +2372,258 @@
         <v>225.4975</v>
       </c>
       <c r="V11">
-        <v>0.0005753700501006678</v>
+        <v>5.7537005010066782E-4</v>
       </c>
       <c r="W11">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X11">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y11">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z11">
-        <v>0.05500885950504882</v>
+        <v>5.5008859505048822E-2</v>
       </c>
       <c r="AA11">
-        <v>0.006151899892024515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>6.1518998920245148E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>249.8058333333333</v>
+        <v>249.80583333333331</v>
       </c>
       <c r="B12">
         <v>13.52777777777778</v>
       </c>
       <c r="C12">
-        <v>0.05964445008552789</v>
+        <v>5.9644450085527892E-2</v>
       </c>
       <c r="D12">
         <v>37.27778130345493</v>
       </c>
       <c r="E12">
-        <v>249.8058333333333</v>
+        <v>249.80583333333331</v>
       </c>
       <c r="F12">
-        <v>0.8880994671403197</v>
+        <v>0.88809946714031973</v>
       </c>
       <c r="G12">
-        <v>0.006687770063235395</v>
+        <v>6.6877700632353952E-3</v>
       </c>
       <c r="H12">
-        <v>4.179856289522122</v>
+        <v>4.1798562895221218</v>
       </c>
       <c r="I12">
-        <v>249.8058333333333</v>
+        <v>249.80583333333331</v>
       </c>
       <c r="J12">
         <v>0.245</v>
       </c>
       <c r="K12">
-        <v>-0.0002644936401501287</v>
+        <v>-2.6449364015012868E-4</v>
       </c>
       <c r="L12">
-        <v>-0.1653085250938305</v>
+        <v>-0.16530852509383051</v>
       </c>
       <c r="U12">
-        <v>249.8058333333333</v>
+        <v>249.80583333333331</v>
       </c>
       <c r="V12">
-        <v>0.0003089918619491534</v>
+        <v>3.0899186194915338E-4</v>
       </c>
       <c r="W12">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X12">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y12">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z12">
-        <v>0.1121272818115581</v>
+        <v>0.11212728181155809</v>
       </c>
       <c r="AA12">
-        <v>-0.0044345054698443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>-4.4345054698442998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>274.7225</v>
+        <v>274.72250000000003</v>
       </c>
       <c r="B13">
-        <v>7.916666666666666</v>
+        <v>7.9166666666666661</v>
       </c>
       <c r="C13">
-        <v>0.06122556208763175</v>
+        <v>6.1225562087631753E-2</v>
       </c>
       <c r="D13">
-        <v>38.26597630476984</v>
+        <v>38.265976304769843</v>
       </c>
       <c r="E13">
-        <v>274.7225</v>
+        <v>274.72250000000003</v>
       </c>
       <c r="F13">
         <v>0.9991119005328597</v>
       </c>
       <c r="G13">
-        <v>-0.003834666923343233</v>
+        <v>-3.8346669233432331E-3</v>
       </c>
       <c r="H13">
-        <v>-2.396666827089521</v>
+        <v>-2.3966668270895211</v>
       </c>
       <c r="I13">
-        <v>274.7225</v>
+        <v>274.72250000000003</v>
       </c>
       <c r="J13">
         <v>0.27</v>
       </c>
       <c r="K13">
-        <v>5.812436751669786E-05</v>
+        <v>5.8124367516697862E-5</v>
       </c>
       <c r="L13">
-        <v>0.03632772969793616</v>
+        <v>3.6327729697936163E-2</v>
       </c>
       <c r="U13">
-        <v>274.7225</v>
+        <v>274.72250000000003</v>
       </c>
       <c r="V13">
-        <v>0.0001625618987897028</v>
+        <v>1.625618987897028E-4</v>
       </c>
       <c r="W13">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X13">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y13">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z13">
-        <v>-0.0626317961418582</v>
+        <v>-6.2631796141858195E-2</v>
       </c>
       <c r="AA13">
-        <v>0.0009493480424647605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>9.4934804246476047E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>297.5725</v>
+        <v>297.57249999999999</v>
       </c>
       <c r="B14">
-        <v>30.79987847365351</v>
+        <v>30.799878473653511</v>
       </c>
       <c r="C14">
-        <v>0.06012050369402814</v>
+        <v>6.0120503694028139E-2</v>
       </c>
       <c r="D14">
-        <v>37.57531480876759</v>
+        <v>37.575314808767587</v>
       </c>
       <c r="E14">
-        <v>297.5725</v>
+        <v>297.57249999999999</v>
       </c>
       <c r="F14">
-        <v>0.4939411110661504</v>
+        <v>0.49394111106615041</v>
       </c>
       <c r="G14">
-        <v>-0.006577907218154782</v>
+        <v>-6.5779072181547816E-3</v>
       </c>
       <c r="H14">
-        <v>-4.111192011346739</v>
+        <v>-4.1111920113467386</v>
       </c>
       <c r="I14">
-        <v>297.5725</v>
+        <v>297.57249999999999</v>
       </c>
       <c r="J14">
-        <v>0.2433140509494628</v>
+        <v>0.24331405094946279</v>
       </c>
       <c r="K14">
-        <v>0.0003440646706541139</v>
+        <v>3.4406467065411389E-4</v>
       </c>
       <c r="L14">
-        <v>0.2150404191588212</v>
+        <v>0.21504041915882119</v>
       </c>
       <c r="U14">
-        <v>297.5725</v>
+        <v>297.57249999999999</v>
       </c>
       <c r="V14">
-        <v>8.998714049897257E-05</v>
+        <v>8.9987140498972568E-5</v>
       </c>
       <c r="W14">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X14">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y14">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z14">
         <v>-0.1094120443772692</v>
       </c>
       <c r="AA14">
-        <v>0.005722917299648146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>5.7229172996481458E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>321.3641666666666</v>
+        <v>321.36416666666662</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
       <c r="C15">
-        <v>0.05254955256709713</v>
+        <v>5.2549552567097133E-2</v>
       </c>
       <c r="D15">
-        <v>32.84347035443571</v>
+        <v>32.843470354435709</v>
       </c>
       <c r="E15">
-        <v>321.3641666666666</v>
+        <v>321.36416666666662</v>
       </c>
       <c r="F15">
-        <v>0.27753108348135</v>
+        <v>0.27753108348135003</v>
       </c>
       <c r="G15">
-        <v>0.003199010776402499</v>
+        <v>3.1990107764024991E-3</v>
       </c>
       <c r="H15">
-        <v>1.999381735251562</v>
+        <v>1.9993817352515619</v>
       </c>
       <c r="I15">
-        <v>321.3641666666666</v>
+        <v>321.36416666666662</v>
       </c>
       <c r="J15">
         <v>0.2</v>
       </c>
       <c r="K15">
-        <v>5.685683649422306E-05</v>
+        <v>5.6856836494223063E-5</v>
       </c>
       <c r="L15">
-        <v>0.03553552280888941</v>
+        <v>3.5535522808889407E-2</v>
       </c>
       <c r="U15">
-        <v>321.3641666666666</v>
+        <v>321.36416666666662</v>
       </c>
       <c r="V15">
-        <v>4.854934244905523E-05</v>
+        <v>4.854934244905523E-5</v>
       </c>
       <c r="W15">
-        <v>0.02600422632693783</v>
+        <v>2.6004226326937829E-2</v>
       </c>
       <c r="X15">
-        <v>0.4658438235359397</v>
+        <v>0.46584382353593973</v>
       </c>
       <c r="Y15">
-        <v>4.177049112680169</v>
+        <v>4.1770491126801694</v>
       </c>
       <c r="Z15">
-        <v>0.06087608019721745</v>
+        <v>6.087608019721745E-2</v>
       </c>
       <c r="AA15">
-        <v>0.001081966138943357</v>
+        <v>1.081966138943357E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2585,14 +2632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2675,374 +2722,374 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10.575</v>
+        <v>10.574999999999999</v>
       </c>
       <c r="B2">
-        <v>29.47222222222222</v>
+        <v>29.472222222222221</v>
       </c>
       <c r="C2">
-        <v>0.09282175487611512</v>
+        <v>9.2821754876115117E-2</v>
       </c>
       <c r="D2">
-        <v>58.01359679757194</v>
+        <v>58.013596797571942</v>
       </c>
       <c r="E2">
-        <v>10.575</v>
+        <v>10.574999999999999</v>
       </c>
       <c r="F2">
-        <v>2.608792184724689</v>
+        <v>2.6087921847246891</v>
       </c>
       <c r="G2">
-        <v>0.07972633301902225</v>
+        <v>7.9726333019022252E-2</v>
       </c>
       <c r="H2">
-        <v>49.82895813688891</v>
+        <v>49.828958136888907</v>
       </c>
       <c r="I2">
-        <v>10.575</v>
+        <v>10.574999999999999</v>
       </c>
       <c r="J2">
         <v>0.15</v>
       </c>
       <c r="K2">
-        <v>-0.001111011839822626</v>
+        <v>-1.111011839822626E-3</v>
       </c>
       <c r="L2">
-        <v>-0.6943823998891412</v>
+        <v>-0.69438239988914119</v>
       </c>
       <c r="M2">
-        <v>21.65833333333333</v>
+        <v>21.658333333333331</v>
       </c>
       <c r="N2">
-        <v>4.02437178322737</v>
+        <v>4.0243717832273704</v>
       </c>
       <c r="O2">
-        <v>0.03701167248689539</v>
+        <v>3.7011672486895388E-2</v>
       </c>
       <c r="P2">
-        <v>23.13229530430962</v>
+        <v>23.132295304309618</v>
       </c>
       <c r="Q2">
-        <v>21.65833333333333</v>
+        <v>21.658333333333331</v>
       </c>
       <c r="R2">
-        <v>9.268649988731124</v>
+        <v>9.2686499887311236</v>
       </c>
       <c r="S2">
-        <v>-0.001564794459262117</v>
+        <v>-1.564794459262117E-3</v>
       </c>
       <c r="T2">
-        <v>-0.9779965370388229</v>
+        <v>-0.97799653703882294</v>
       </c>
       <c r="U2">
-        <v>10.575</v>
+        <v>10.574999999999999</v>
       </c>
       <c r="V2">
-        <v>0.01881086058184458</v>
+        <v>1.8810860581844582E-2</v>
       </c>
       <c r="W2">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X2">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y2">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z2">
-        <v>0.8589186136959949</v>
+        <v>0.85891861369599487</v>
       </c>
       <c r="AA2">
-        <v>-0.01196930440827629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>-1.196930440827629E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>32.23333333333333</v>
+        <v>32.233333333333327</v>
       </c>
       <c r="B3">
-        <v>28.19444444444444</v>
+        <v>28.194444444444439</v>
       </c>
       <c r="C3">
-        <v>0.06624950810118727</v>
+        <v>6.6249508101187266E-2</v>
       </c>
       <c r="D3">
-        <v>41.40594256324204</v>
+        <v>41.405942563242043</v>
       </c>
       <c r="E3">
-        <v>32.23333333333333</v>
+        <v>32.233333333333327</v>
       </c>
       <c r="F3">
-        <v>3.552397868561279</v>
+        <v>3.5523978685612789</v>
       </c>
       <c r="G3">
-        <v>0.04905958777603196</v>
+        <v>4.9059587776031963E-2</v>
       </c>
       <c r="H3">
         <v>30.66224236001997</v>
       </c>
       <c r="I3">
-        <v>32.23333333333333</v>
+        <v>32.233333333333327</v>
       </c>
       <c r="J3">
         <v>0.17</v>
       </c>
       <c r="K3">
-        <v>-0.001411819949681357</v>
+        <v>-1.4118199496813569E-3</v>
       </c>
       <c r="L3">
-        <v>-0.882387468550848</v>
+        <v>-0.88238746855084804</v>
       </c>
       <c r="M3">
-        <v>57.45833333333333</v>
+        <v>57.458333333333329</v>
       </c>
       <c r="N3">
-        <v>2.809188616409325</v>
+        <v>2.8091886164093252</v>
       </c>
       <c r="O3">
-        <v>0.03024441693258067</v>
+        <v>3.0244416932580669E-2</v>
       </c>
       <c r="P3">
-        <v>18.90276058286292</v>
+        <v>18.902760582862921</v>
       </c>
       <c r="Q3">
-        <v>57.45833333333333</v>
+        <v>57.458333333333329</v>
       </c>
       <c r="R3">
-        <v>9.203290511606941</v>
+        <v>9.2032905116069408</v>
       </c>
       <c r="S3">
-        <v>0.001894239145025237</v>
+        <v>1.8942391450252371E-3</v>
       </c>
       <c r="T3">
-        <v>1.183899465640773</v>
+        <v>1.1838994656407731</v>
       </c>
       <c r="U3">
-        <v>32.23333333333333</v>
+        <v>32.233333333333327</v>
       </c>
       <c r="V3">
-        <v>0.01739825942992298</v>
+        <v>1.7398259429922978E-2</v>
       </c>
       <c r="W3">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X3">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y3">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z3">
-        <v>0.7405275779723527</v>
+        <v>0.74052757797235269</v>
       </c>
       <c r="AA3">
-        <v>-0.02131064803568037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>-2.131064803568037E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>57.45833333333333</v>
+        <v>57.458333333333329</v>
       </c>
       <c r="B4">
-        <v>26.52777777777778</v>
+        <v>26.527777777777779</v>
       </c>
       <c r="C4">
-        <v>0.05653978804338386</v>
+        <v>5.653978804338386E-2</v>
       </c>
       <c r="D4">
-        <v>35.33736752711491</v>
+        <v>35.337367527114907</v>
       </c>
       <c r="E4">
-        <v>57.45833333333333</v>
+        <v>57.458333333333329</v>
       </c>
       <c r="F4">
-        <v>4.329484902309058</v>
+        <v>4.3294849023090576</v>
       </c>
       <c r="G4">
-        <v>0.02555065446943145</v>
+        <v>2.5550654469431451E-2</v>
       </c>
       <c r="H4">
         <v>15.96915904339466</v>
       </c>
       <c r="I4">
-        <v>57.45833333333333</v>
+        <v>57.458333333333329</v>
       </c>
       <c r="J4">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="K4">
-        <v>-0.001403517047225188</v>
+        <v>-1.4035170472251879E-3</v>
       </c>
       <c r="L4">
-        <v>-0.8771981545157425</v>
+        <v>-0.87719815451574246</v>
       </c>
       <c r="M4">
         <v>108.15</v>
       </c>
       <c r="N4">
-        <v>1.5103693611868</v>
+        <v>1.5103693611868001</v>
       </c>
       <c r="O4">
-        <v>0.01594347162386734</v>
+        <v>1.594347162386734E-2</v>
       </c>
       <c r="P4">
-        <v>9.96466976491709</v>
+        <v>9.9646697649170903</v>
       </c>
       <c r="Q4">
         <v>108.15</v>
       </c>
       <c r="R4">
-        <v>8.541807527608743</v>
+        <v>8.5418075276087428</v>
       </c>
       <c r="S4">
-        <v>0.004629679507152721</v>
+        <v>4.6296795071527211E-3</v>
       </c>
       <c r="T4">
         <v>2.89354969197045</v>
       </c>
       <c r="U4">
-        <v>57.45833333333333</v>
+        <v>57.458333333333329</v>
       </c>
       <c r="V4">
-        <v>0.01518050384672099</v>
+        <v>1.518050384672099E-2</v>
       </c>
       <c r="W4">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X4">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y4">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z4">
-        <v>0.4519057349459116</v>
+        <v>0.45190573494591157</v>
       </c>
       <c r="AA4">
-        <v>-0.02482352862993132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>-2.482352862993132E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>83.74166666666667</v>
+        <v>83.741666666666674</v>
       </c>
       <c r="B5">
         <v>23.14169711733658</v>
       </c>
       <c r="C5">
-        <v>0.0530155995568859</v>
+        <v>5.3015599556885902E-2</v>
       </c>
       <c r="D5">
-        <v>33.13474972305369</v>
+        <v>33.134749723053687</v>
       </c>
       <c r="E5">
-        <v>83.74166666666667</v>
+        <v>83.741666666666674</v>
       </c>
       <c r="F5">
-        <v>4.882180787195791</v>
+        <v>4.8821807871957912</v>
       </c>
       <c r="G5">
-        <v>0.01013927000773103</v>
+        <v>1.013927000773103E-2</v>
       </c>
       <c r="H5">
-        <v>6.337043754831893</v>
+        <v>6.3370437548318934</v>
       </c>
       <c r="I5">
-        <v>83.74166666666667</v>
+        <v>83.741666666666674</v>
       </c>
       <c r="J5">
-        <v>0.249537149817296</v>
+        <v>0.24953714981729599</v>
       </c>
       <c r="K5">
-        <v>-0.001212120555809017</v>
+        <v>-1.212120555809017E-3</v>
       </c>
       <c r="L5">
         <v>-0.7575753473806357</v>
       </c>
       <c r="M5">
-        <v>166.5583333333333</v>
+        <v>166.55833333333331</v>
       </c>
       <c r="N5">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O5">
-        <v>0.00561494441668331</v>
+        <v>5.6149444166833096E-3</v>
       </c>
       <c r="P5">
-        <v>3.509340260427069</v>
+        <v>3.5093402604270691</v>
       </c>
       <c r="Q5">
-        <v>166.5583333333333</v>
+        <v>166.55833333333331</v>
       </c>
       <c r="R5">
         <v>7.265795206971676</v>
       </c>
       <c r="S5">
-        <v>0.007245364088138157</v>
+        <v>7.2453640881381572E-3</v>
       </c>
       <c r="T5">
-        <v>4.528352555086348</v>
+        <v>4.5283525550863484</v>
       </c>
       <c r="U5">
-        <v>83.74166666666667</v>
+        <v>83.741666666666674</v>
       </c>
       <c r="V5">
-        <v>0.01231403698222795</v>
+        <v>1.231403698222795E-2</v>
       </c>
       <c r="W5">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X5">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y5">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z5">
-        <v>0.1912506902209332</v>
+        <v>0.19125069022093319</v>
       </c>
       <c r="AA5">
-        <v>-0.02286346973230791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>-2.286346973230791E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>105.3083333333333</v>
+        <v>105.30833333333329</v>
       </c>
       <c r="B6">
-        <v>20.83333333333334</v>
+        <v>20.833333333333339</v>
       </c>
       <c r="C6">
-        <v>0.05003130313051254</v>
+        <v>5.0031303130512537E-2</v>
       </c>
       <c r="D6">
         <v>31.26956445657034</v>
       </c>
       <c r="E6">
-        <v>105.3083333333333</v>
+        <v>105.30833333333329</v>
       </c>
       <c r="F6">
-        <v>4.940053285968029</v>
+        <v>4.9400532859680286</v>
       </c>
       <c r="G6">
-        <v>-0.01153423810109652</v>
+        <v>-1.1534238101096521E-2</v>
       </c>
       <c r="H6">
-        <v>-7.208898813185321</v>
+        <v>-7.2088988131853213</v>
       </c>
       <c r="I6">
-        <v>105.3083333333333</v>
+        <v>105.30833333333329</v>
       </c>
       <c r="J6">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="K6">
-        <v>-0.0008601929632711683</v>
+        <v>-8.6019296327116831E-4</v>
       </c>
       <c r="L6">
-        <v>-0.5376206020444801</v>
+        <v>-0.53762060204448014</v>
       </c>
       <c r="M6">
         <v>200.5</v>
@@ -3051,196 +3098,196 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.003018214921886378</v>
+        <v>3.018214921886378E-3</v>
       </c>
       <c r="P6">
-        <v>1.886384326178986</v>
+        <v>1.8863843261789861</v>
       </c>
       <c r="Q6">
         <v>200.5</v>
       </c>
       <c r="R6">
-        <v>6.122004357298474</v>
+        <v>6.1220043572984739</v>
       </c>
       <c r="S6">
-        <v>0.009294779222251444</v>
+        <v>9.2947792222514442E-3</v>
       </c>
       <c r="T6">
-        <v>5.809237013907152</v>
+        <v>5.8092370139071523</v>
       </c>
       <c r="U6">
-        <v>105.3083333333333</v>
+        <v>105.30833333333329</v>
       </c>
       <c r="V6">
-        <v>0.009776675213923662</v>
+        <v>9.7766752139236621E-3</v>
       </c>
       <c r="W6">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X6">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y6">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z6">
-        <v>-0.2305404292790076</v>
+        <v>-0.23054042927900761</v>
       </c>
       <c r="AA6">
-        <v>-0.01719309531129449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>-1.7193095311294489E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>129.7166666666667</v>
       </c>
       <c r="B7">
-        <v>18.13888888888889</v>
+        <v>18.138888888888889</v>
       </c>
       <c r="C7">
-        <v>0.03079989917753162</v>
+        <v>3.079989917753162E-2</v>
       </c>
       <c r="D7">
-        <v>19.24993698595726</v>
+        <v>19.249936985957259</v>
       </c>
       <c r="E7">
         <v>129.7166666666667</v>
       </c>
       <c r="F7">
-        <v>3.552397868561279</v>
+        <v>3.5523978685612789</v>
       </c>
       <c r="G7">
-        <v>-0.02338564077745321</v>
+        <v>-2.3385640777453209E-2</v>
       </c>
       <c r="H7">
-        <v>-14.61602548590825</v>
+        <v>-14.616025485908249</v>
       </c>
       <c r="I7">
         <v>129.7166666666667</v>
       </c>
       <c r="J7">
-        <v>0.345</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="K7">
-        <v>-0.0008560051641904948</v>
+        <v>-8.5600516419049482E-4</v>
       </c>
       <c r="L7">
-        <v>-0.5350032276190593</v>
+        <v>-0.53500322761905927</v>
       </c>
       <c r="M7">
-        <v>274.2583333333333</v>
+        <v>274.25833333333333</v>
       </c>
       <c r="N7">
-        <v>0.4056917953375719</v>
+        <v>0.40569179533757188</v>
       </c>
       <c r="O7">
-        <v>-0.0005983304394153522</v>
+        <v>-5.9833043941535219E-4</v>
       </c>
       <c r="P7">
-        <v>-0.3739565246345951</v>
+        <v>-0.37395652463459511</v>
       </c>
       <c r="Q7">
-        <v>274.2583333333333</v>
+        <v>274.25833333333333</v>
       </c>
       <c r="R7">
-        <v>3.45841784989858</v>
+        <v>3.4584178498985798</v>
       </c>
       <c r="S7">
-        <v>0.01008422827749819</v>
+        <v>1.008422827749819E-2</v>
       </c>
       <c r="T7">
-        <v>6.302642673436369</v>
+        <v>6.3026426734363694</v>
       </c>
       <c r="U7">
         <v>129.7166666666667</v>
       </c>
       <c r="V7">
-        <v>0.007056774099593724</v>
+        <v>7.0567740995937239E-3</v>
       </c>
       <c r="W7">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X7">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y7">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z7">
-        <v>-0.7592765366749291</v>
+        <v>-0.75927653667492911</v>
       </c>
       <c r="AA7">
-        <v>-0.02779246643816765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>-2.779246643816765E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>154.9833333333333</v>
+        <v>154.98333333333329</v>
       </c>
       <c r="B8">
-        <v>33.63786338505439</v>
+        <v>33.637863385054388</v>
       </c>
       <c r="C8">
-        <v>0.02584381924326493</v>
+        <v>2.584381924326493E-2</v>
       </c>
       <c r="D8">
-        <v>16.15238702704058</v>
+        <v>16.152387027040579</v>
       </c>
       <c r="E8">
-        <v>154.9833333333333</v>
+        <v>154.98333333333329</v>
       </c>
       <c r="F8">
-        <v>1.757221688443873</v>
+        <v>1.7572216884438729</v>
       </c>
       <c r="G8">
-        <v>-0.01470909134686569</v>
+        <v>-1.4709091346865689E-2</v>
       </c>
       <c r="H8">
-        <v>-9.193182091791055</v>
+        <v>-9.1931820917910549</v>
       </c>
       <c r="I8">
-        <v>154.9833333333333</v>
+        <v>154.98333333333329</v>
       </c>
       <c r="J8">
-        <v>0.3934109149277688</v>
+        <v>0.39341091492776881</v>
       </c>
       <c r="K8">
-        <v>-0.000734557870616105</v>
+        <v>-7.3455787061610497E-4</v>
       </c>
       <c r="L8">
-        <v>-0.4590986691350656</v>
+        <v>-0.45909866913506558</v>
       </c>
       <c r="U8">
-        <v>154.9833333333333</v>
+        <v>154.98333333333329</v>
       </c>
       <c r="V8">
-        <v>0.00472133757348039</v>
+        <v>4.7213375734803898E-3</v>
       </c>
       <c r="W8">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X8">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y8">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z8">
-        <v>-0.5691531583784379</v>
+        <v>-0.56915315837843794</v>
       </c>
       <c r="AA8">
-        <v>-0.02842296116149843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>-2.8422961161498429E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>176.8416666666667</v>
       </c>
       <c r="B9">
-        <v>31.27777777777778</v>
+        <v>31.277777777777779</v>
       </c>
       <c r="C9">
-        <v>0.03189674497997418</v>
+        <v>3.1896744979974183E-2</v>
       </c>
       <c r="D9">
         <v>19.93546561248386</v>
@@ -3252,10 +3299,10 @@
         <v>1.05461811722913</v>
       </c>
       <c r="G9">
-        <v>-0.005184262203688964</v>
+        <v>-5.1842622036889644E-3</v>
       </c>
       <c r="H9">
-        <v>-3.240163877305603</v>
+        <v>-3.2401638773056032</v>
       </c>
       <c r="I9">
         <v>176.8416666666667</v>
@@ -3264,42 +3311,42 @@
         <v>0.435</v>
       </c>
       <c r="K9">
-        <v>-9.251701782628306E-05</v>
+        <v>-9.2517017826283061E-5</v>
       </c>
       <c r="L9">
-        <v>-0.05782313614142691</v>
+        <v>-5.7823136141426909E-2</v>
       </c>
       <c r="U9">
         <v>176.8416666666667</v>
       </c>
       <c r="V9">
-        <v>0.003197829497482208</v>
+        <v>3.1978294974822079E-3</v>
       </c>
       <c r="W9">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X9">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y9">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z9">
         <v>-0.1625326410874782</v>
       </c>
       <c r="AA9">
-        <v>-0.002900515958113227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>-2.900515958113227E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>200.5</v>
       </c>
       <c r="B10">
-        <v>27.47222222222222</v>
+        <v>27.472222222222221</v>
       </c>
       <c r="C10">
-        <v>0.04439522148031762</v>
+        <v>4.4395221480317618E-2</v>
       </c>
       <c r="D10">
         <v>27.74701342519851</v>
@@ -3308,10 +3355,10 @@
         <v>200.5</v>
       </c>
       <c r="F10">
-        <v>0.8325932504440499</v>
+        <v>0.83259325044404986</v>
       </c>
       <c r="G10">
-        <v>-0.000372080444609192</v>
+        <v>-3.7208044460919202E-4</v>
       </c>
       <c r="H10">
         <v>-0.232550277880745</v>
@@ -3320,116 +3367,116 @@
         <v>200.5</v>
       </c>
       <c r="J10">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="K10">
-        <v>0.0001356018549357275</v>
+        <v>1.356018549357275E-4</v>
       </c>
       <c r="L10">
-        <v>0.08475115933482968</v>
+        <v>8.4751159334829684E-2</v>
       </c>
       <c r="U10">
         <v>200.5</v>
       </c>
       <c r="V10">
-        <v>0.002031887433078369</v>
+        <v>2.0318874330783692E-3</v>
       </c>
       <c r="W10">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X10">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y10">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z10">
-        <v>-0.008381092203226238</v>
+        <v>-8.3810922032262376E-3</v>
       </c>
       <c r="AA10">
-        <v>0.003054424562243615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>3.054424562243615E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>225.5583333333333</v>
+        <v>225.55833333333331</v>
       </c>
       <c r="B11">
-        <v>21.49975966756598</v>
+        <v>21.499759667565979</v>
       </c>
       <c r="C11">
-        <v>0.04866774298456947</v>
+        <v>4.8667742984569468E-2</v>
       </c>
       <c r="D11">
-        <v>30.41733936535591</v>
+        <v>30.417339365355911</v>
       </c>
       <c r="E11">
-        <v>225.5583333333333</v>
+        <v>225.55833333333331</v>
       </c>
       <c r="F11">
-        <v>0.8130738998894027</v>
+        <v>0.81307389988940271</v>
       </c>
       <c r="G11">
-        <v>0.001524223530404849</v>
+        <v>1.5242235304048491E-3</v>
       </c>
       <c r="H11">
-        <v>0.9526397065030308</v>
+        <v>0.95263970650303076</v>
       </c>
       <c r="I11">
-        <v>225.5583333333333</v>
+        <v>225.55833333333331</v>
       </c>
       <c r="J11">
-        <v>0.3902037398827798</v>
+        <v>0.39020373988277979</v>
       </c>
       <c r="K11">
-        <v>0.0001208631355214132</v>
+        <v>1.2086313552141319E-4</v>
       </c>
       <c r="L11">
-        <v>0.07553945970088322</v>
+        <v>7.5539459700883216E-2</v>
       </c>
       <c r="U11">
-        <v>225.5583333333333</v>
+        <v>225.55833333333331</v>
       </c>
       <c r="V11">
-        <v>0.001226414720964123</v>
+        <v>1.2264147209641229E-3</v>
       </c>
       <c r="W11">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X11">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y11">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z11">
-        <v>0.03131896892954575</v>
+        <v>3.1318968929545749E-2</v>
       </c>
       <c r="AA11">
-        <v>0.002483434162125289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>2.483434162125289E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>249.8666666666667</v>
       </c>
       <c r="B12">
-        <v>16.30555555555556</v>
+        <v>16.305555555555561</v>
       </c>
       <c r="C12">
-        <v>0.05732933452372631</v>
+        <v>5.7329334523726308E-2</v>
       </c>
       <c r="D12">
-        <v>35.83083407732894</v>
+        <v>35.830834077328937</v>
       </c>
       <c r="E12">
         <v>249.8666666666667</v>
       </c>
       <c r="F12">
-        <v>0.9991119005328598</v>
+        <v>0.99911190053285981</v>
       </c>
       <c r="G12">
-        <v>0.002848877005318167</v>
+        <v>2.848877005318167E-3</v>
       </c>
       <c r="H12">
         <v>1.780548128323854</v>
@@ -3441,152 +3488,152 @@
         <v>0.39</v>
       </c>
       <c r="K12">
-        <v>-0.0003350822459750475</v>
+        <v>-3.3508224597504751E-4</v>
       </c>
       <c r="L12">
-        <v>-0.2094264037344047</v>
+        <v>-0.20942640373440469</v>
       </c>
       <c r="U12">
         <v>249.8666666666667</v>
       </c>
       <c r="V12">
-        <v>0.000740016161708577</v>
+        <v>7.40016161708577E-4</v>
       </c>
       <c r="W12">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X12">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y12">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z12">
-        <v>0.04969318114340104</v>
+        <v>4.9693181143401037E-2</v>
       </c>
       <c r="AA12">
-        <v>-0.005844865438589216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>-5.8448654385892156E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>274.7916666666666</v>
+        <v>274.79166666666657</v>
       </c>
       <c r="B13">
         <v>10.41666666666667</v>
       </c>
       <c r="C13">
-        <v>0.05385644464803714</v>
+        <v>5.3856444648037141E-2</v>
       </c>
       <c r="D13">
-        <v>33.66027790502321</v>
+        <v>33.660277905023207</v>
       </c>
       <c r="E13">
-        <v>274.7916666666666</v>
+        <v>274.79166666666657</v>
       </c>
       <c r="F13">
-        <v>1.1101243339254</v>
+        <v>1.1101243339254001</v>
       </c>
       <c r="G13">
-        <v>-0.002693635064446576</v>
+        <v>-2.6936350644465759E-3</v>
       </c>
       <c r="H13">
-        <v>-1.68352191527911</v>
+        <v>-1.6835219152791101</v>
       </c>
       <c r="I13">
-        <v>274.7916666666666</v>
+        <v>274.79166666666657</v>
       </c>
       <c r="J13">
         <v>0.4</v>
       </c>
       <c r="K13">
-        <v>0.0004175965665307308</v>
+        <v>4.1759656653073081E-4</v>
       </c>
       <c r="L13">
-        <v>0.2609978540817067</v>
+        <v>0.26099785408170673</v>
       </c>
       <c r="U13">
-        <v>274.7916666666666</v>
+        <v>274.79166666666657</v>
       </c>
       <c r="V13">
-        <v>0.0004365913066874122</v>
+        <v>4.3659130668741218E-4</v>
       </c>
       <c r="W13">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X13">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y13">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z13">
-        <v>-0.05001509256784459</v>
+        <v>-5.0015092567844588E-2</v>
       </c>
       <c r="AA13">
-        <v>0.007753882924500672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>7.7538829245006723E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>297.6333333333333</v>
+        <v>297.63333333333333</v>
       </c>
       <c r="B14">
-        <v>33.20542373971193</v>
+        <v>33.205423739711932</v>
       </c>
       <c r="C14">
-        <v>0.04909062484610371</v>
+        <v>4.9090624846103707E-2</v>
       </c>
       <c r="D14">
         <v>30.68164052881481</v>
       </c>
       <c r="E14">
-        <v>297.6333333333333</v>
+        <v>297.63333333333333</v>
       </c>
       <c r="F14">
-        <v>0.6599714862509045</v>
+        <v>0.65997148625090452</v>
       </c>
       <c r="G14">
-        <v>-0.005216466888207113</v>
+        <v>-5.2164668882071132E-3</v>
       </c>
       <c r="H14">
-        <v>-3.260291805129446</v>
+        <v>-3.2602918051294458</v>
       </c>
       <c r="I14">
-        <v>297.6333333333333</v>
+        <v>297.63333333333333</v>
       </c>
       <c r="J14">
-        <v>0.3426359953703704</v>
+        <v>0.34263599537037043</v>
       </c>
       <c r="K14">
-        <v>0.0005754553059802651</v>
+        <v>5.754553059802651E-4</v>
       </c>
       <c r="L14">
-        <v>0.3596595662376657</v>
+        <v>0.35965956623766571</v>
       </c>
       <c r="U14">
-        <v>297.6333333333333</v>
+        <v>297.63333333333333</v>
       </c>
       <c r="V14">
-        <v>0.0002677827779245819</v>
+        <v>2.6778277792458189E-4</v>
       </c>
       <c r="W14">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X14">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y14">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z14">
-        <v>-0.1062619778126768</v>
+        <v>-0.10626197781267679</v>
       </c>
       <c r="AA14">
-        <v>0.01172230558857795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>1.1722305588577951E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>321.4083333333333</v>
       </c>
@@ -3594,55 +3641,55 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>0.05137653741713161</v>
+        <v>5.1376537417131607E-2</v>
       </c>
       <c r="D15">
-        <v>32.11033588570726</v>
+        <v>32.110335885707258</v>
       </c>
       <c r="E15">
         <v>321.4083333333333</v>
       </c>
       <c r="F15">
-        <v>0.5550621669626998</v>
+        <v>0.55506216696269983</v>
       </c>
       <c r="G15">
-        <v>0.004215613078870533</v>
+        <v>4.2156130788705334E-3</v>
       </c>
       <c r="H15">
-        <v>2.634758174294083</v>
+        <v>2.6347581742940829</v>
       </c>
       <c r="I15">
         <v>321.4083333333333</v>
       </c>
       <c r="J15">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K15">
-        <v>-0.0001886949536302397</v>
+        <v>-1.8869495363023971E-4</v>
       </c>
       <c r="L15">
-        <v>-0.1179343460188998</v>
+        <v>-0.11793434601889979</v>
       </c>
       <c r="U15">
         <v>321.4083333333333</v>
       </c>
       <c r="V15">
-        <v>0.0001604771484335665</v>
+        <v>1.6047714843356651E-4</v>
       </c>
       <c r="W15">
-        <v>0.02174587499984249</v>
+        <v>2.1745874999842488E-2</v>
       </c>
       <c r="X15">
-        <v>0.5093704387430845</v>
+        <v>0.50937043874308452</v>
       </c>
       <c r="Y15">
-        <v>4.618063164573927</v>
+        <v>4.6180631645739272</v>
       </c>
       <c r="Z15">
-        <v>0.08205327355254635</v>
+        <v>8.2053273552546352E-2</v>
       </c>
       <c r="AA15">
-        <v>-0.003672784565028296</v>
+        <v>-3.672784565028296E-3</v>
       </c>
     </row>
   </sheetData>
